--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9215052-159C-4FDB-AA91-63CC2131F3C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF7750-59A6-437D-BBD6-3F0F684318F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1965" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="2310" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -497,12 +497,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.28515625" customWidth="1"/>
     <col min="7" max="7" width="40.140625" customWidth="1"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF7750-59A6-437D-BBD6-3F0F684318F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACECD4AC-70E0-4162-9E94-50B639AA5804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2310" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="2655" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACECD4AC-70E0-4162-9E94-50B639AA5804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685579D9-BDCD-4DF6-B605-BC0D596DFA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2655" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>desc</t>
   </si>
@@ -103,6 +103,17 @@
   <si>
     <t>ねこクッキーが食べたい。</t>
     <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジねこクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;オレンジねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="34" eb="35">
       <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -492,12 +503,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -534,7 +545,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A4" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A5" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -565,19 +576,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="E3" s="2">
         <v>9999</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -586,21 +597,45 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>9999</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685579D9-BDCD-4DF6-B605-BC0D596DFA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B2597A-E654-4264-949B-2C1F1505BBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -108,13 +108,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オレンジねこクッキー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;color=#FF78B4&gt;オレンジねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
     <rPh sb="34" eb="35">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジねこクッキーか、オレンジ添えのクッキー系</t>
+    <rPh sb="16" eb="17">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -508,7 +514,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -579,16 +585,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>9999</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>9999</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B2597A-E654-4264-949B-2C1F1505BBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852175E-925A-4BDA-ABFA-308B381C7DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>desc</t>
   </si>
@@ -122,6 +122,10 @@
     <rPh sb="23" eb="24">
       <t>ケイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>set_flag</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -509,12 +513,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -526,7 +530,7 @@
     <col min="7" max="7" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -548,8 +552,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A5" si="0">ROW()-2</f>
         <v>0</v>
@@ -572,8 +579,11 @@
       <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -596,8 +606,11 @@
       <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -620,8 +633,11 @@
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -643,6 +659,9 @@
       </c>
       <c r="G5" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852175E-925A-4BDA-ABFA-308B381C7DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDB26A-70E5-4205-AC01-92CBE9A2C137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>desc</t>
   </si>
@@ -108,13 +108,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;オレンジねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="34" eb="35">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>オレンジねこクッキーか、オレンジ添えのクッキー系</t>
     <rPh sb="16" eb="17">
       <t>ソ</t>
@@ -126,6 +119,48 @@
   </si>
   <si>
     <t>set_flag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜自由＞クッキー系</t>
+    <rPh sb="1" eb="3">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>set_score</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お兄ちゃんの&lt;color=#FF78B4&gt;オリジナル&lt;/color&gt;のクッキーを食べさせて！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ラスク&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="27" eb="28">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスクが食べたい。</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF8400&gt;オレンジ&lt;/color&gt;の風味の&lt;color=#FF78B4&gt;クッキー&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="28" eb="30">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -513,12 +548,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -530,7 +565,7 @@
     <col min="7" max="7" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -553,12 +588,15 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A5" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A7" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -582,8 +620,11 @@
       <c r="H2" s="2">
         <v>1</v>
       </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -601,16 +642,19 @@
         <v>9999</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -619,25 +663,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="E4" s="2">
         <v>9999</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -646,21 +693,84 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E7" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDB26A-70E5-4205-AC01-92CBE9A2C137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2CFBB6-B1A4-4FFB-9E74-2F8D6917EDC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="2010" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>desc</t>
   </si>
@@ -140,13 +142,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;ラスク&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="27" eb="28">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラスクが食べたい。</t>
     <rPh sb="4" eb="5">
       <t>タ</t>
@@ -160,6 +155,92 @@
     </rPh>
     <rPh sb="59" eb="60">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hint_text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お兄ちゃんの作ったクッキーが食べたいなあ。
+見た目がかわいいのがいいな～！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ねこクッキーは、ねこの味！</t>
+    <rPh sb="11" eb="12">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジは、近くの森でも採れるよ！お兄ちゃん！</t>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ニイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスクじゃなくても、サクサクしたお菓子なら食べたいよ～！</t>
+    <rPh sb="17" eb="19">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紫色の、つぶつぶのフルーツがのってるやつ..。
+あれ、なんだっけ。</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、&lt;color=#FF78B4&gt;ラスク&lt;/color&gt;を食べてみたい！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、じいちゃんからラスクの作り方を教えてもらったから、
+早速作ってみようよ！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サッソク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -225,12 +306,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -548,24 +632,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.28515625" customWidth="1"/>
     <col min="7" max="7" width="40.140625" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -593,8 +678,11 @@
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A7" si="0">ROW()-2</f>
         <v>0</v>
@@ -623,8 +711,11 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -642,7 +733,7 @@
         <v>9999</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
@@ -653,29 +744,32 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>9999</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -683,29 +777,32 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>9999</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>9999</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -713,29 +810,32 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
+      <c r="J5" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="E6" s="2">
         <v>9999</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -743,35 +843,41 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>1010</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
-        <v>20</v>
+        <v>9999</v>
       </c>
       <c r="E7" s="2">
         <v>9999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2CFBB6-B1A4-4FFB-9E74-2F8D6917EDC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6532213A-DA40-4F53-9C4A-4ECB75D8A602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2010" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="2880" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>desc</t>
   </si>
@@ -44,13 +44,6 @@
   </si>
   <si>
     <t>set3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;カリっとした&lt;/color&gt;お菓子が食べたいなぁ。</t>
-    <rPh sb="33" eb="34">
-      <t>タ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -68,29 +61,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;芳醇な香りのクッキー&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="15" eb="17">
-      <t>ホウジュン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ぶどうトッピング、またはコク度が30以上、クッキー</t>
-    <rPh sb="14" eb="15">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>set_compID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -187,16 +157,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ニイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラスクじゃなくても、サクサクしたお菓子なら食べたいよ～！</t>
-    <rPh sb="17" eb="19">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -241,6 +201,51 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;カリカリした&lt;/color&gt;お菓子が食べたいなぁ。</t>
+    <rPh sb="33" eb="34">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サクサクしたお菓子が食べたいよ～！</t>
+    <rPh sb="7" eb="9">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどうトッピングのクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;紫の、つぶつぶがのってるクッキー..&lt;/color&gt;なんだっけ？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ラスク&lt;/color&gt;が食べたいなぁ。</t>
+    <rPh sb="27" eb="28">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、あのカリカリの甘いパン食べたい！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -632,12 +637,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -652,10 +657,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -670,21 +675,21 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A7" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -700,10 +705,10 @@
         <v>9999</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -712,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -733,10 +738,10 @@
         <v>9999</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -745,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -766,10 +771,10 @@
         <v>9999</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -778,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -790,19 +795,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>9999</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -811,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -820,10 +825,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>9999</v>
@@ -832,7 +837,7 @@
         <v>9999</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>15</v>
@@ -844,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -853,31 +858,64 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
         <v>1010</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>27</v>
+      <c r="D8" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6532213A-DA40-4F53-9C4A-4ECB75D8A602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17418F5-38E0-47C7-8769-8D60B8BDE8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="2880" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="2280" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>desc</t>
   </si>
@@ -246,6 +246,67 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;たまごの入った、濃厚なクッキー&lt;/color&gt;。兄ちゃん、作れないかな？</t>
+    <rPh sb="19" eb="20">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>味わい深いクッキーが食べたい。</t>
+    <rPh sb="0" eb="1">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、ねこクッキーにたまごを入れてもおいしいかも！
+生地の作り方は.. う～んと、え～と..　小麦粉は、一番最後に入れたような..。</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -637,12 +698,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -689,7 +750,7 @@
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -858,10 +919,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
         <v>9999</v>
@@ -870,10 +931,10 @@
         <v>9999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -882,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -891,36 +952,69 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
         <v>1010</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>30</v>
       </c>
-      <c r="D8" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D9" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17418F5-38E0-47C7-8769-8D60B8BDE8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D91ABE-ADE3-45E5-B92F-82A8912A0763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="2280" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="1905" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -700,10 +700,10 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D91ABE-ADE3-45E5-B92F-82A8912A0763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AEB99B-8564-42BE-9EFC-2D8C62978A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1905" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -700,10 +700,10 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>31</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AEB99B-8564-42BE-9EFC-2D8C62978A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945B0CDE-CCF2-4F38-AD95-DA5B097DAE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="1515" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>desc</t>
   </si>
@@ -308,6 +308,10 @@
     <rPh sb="59" eb="60">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>clear</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -698,12 +702,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -716,7 +720,7 @@
     <col min="10" max="10" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -747,8 +751,11 @@
       <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
         <v>0</v>
@@ -780,8 +787,11 @@
       <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -813,8 +823,11 @@
       <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -846,8 +859,11 @@
       <c r="J4" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -879,8 +895,11 @@
       <c r="J5" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -912,8 +931,11 @@
       <c r="J6" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -945,8 +967,11 @@
       <c r="J7" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -978,8 +1003,11 @@
       <c r="J8" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1010,6 +1038,9 @@
       </c>
       <c r="J9" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945B0CDE-CCF2-4F38-AD95-DA5B097DAE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0832B1-75F2-417A-A9BB-AD5E1E650A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="1515" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2">
         <v>9999</v>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="E3" s="2">
         <v>9999</v>
@@ -872,7 +872,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="D5" s="2">
         <v>21</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0832B1-75F2-417A-A9BB-AD5E1E650A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE97F23-3AFB-445E-80BD-D3627A157E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3090" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -836,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2">
         <v>9999</v>
@@ -1016,7 +1016,7 @@
         <v>1010</v>
       </c>
       <c r="C9" s="2">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE97F23-3AFB-445E-80BD-D3627A157E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D97B531-3748-4CCA-A62E-26DFFF03F358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3090" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>desc</t>
   </si>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;ねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ねこクッキーが食べたい。</t>
     <rPh sb="7" eb="8">
       <t>タ</t>
@@ -108,10 +104,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お兄ちゃんの&lt;color=#FF78B4&gt;オリジナル&lt;/color&gt;のクッキーを食べさせて！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラスクが食べたい。</t>
     <rPh sb="4" eb="5">
       <t>タ</t>
@@ -119,22 +111,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF8400&gt;オレンジ&lt;/color&gt;の風味の&lt;color=#FF78B4&gt;クッキー&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="28" eb="30">
-      <t>フウミ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>hint_text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お兄ちゃんの作ったクッキーが食べたいなあ。
-見た目がかわいいのがいいな～！</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -172,46 +149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>兄ちゃん、&lt;color=#FF78B4&gt;ラスク&lt;/color&gt;を食べてみたい！</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>兄ちゃん、じいちゃんからラスクの作り方を教えてもらったから、
-早速作ってみようよ！</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オシ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サッソク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;カリカリした&lt;/color&gt;お菓子が食べたいなぁ。</t>
-    <rPh sb="33" eb="34">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>サクサクしたお菓子が食べたいよ～！</t>
     <rPh sb="7" eb="9">
       <t>カシ</t>
@@ -226,17 +163,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;紫の、つぶつぶがのってるクッキー..&lt;/color&gt;なんだっけ？</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;ラスク&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="27" eb="28">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>兄ちゃん、あのカリカリの甘いパン食べたい！</t>
     <rPh sb="0" eb="1">
       <t>ニイ</t>
@@ -246,22 +172,6 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;たまごの入った、濃厚なクッキー&lt;/color&gt;。兄ちゃん、作れないかな？</t>
-    <rPh sb="19" eb="20">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -312,6 +222,106 @@
   </si>
   <si>
     <t>clear</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビスコッティが食べたい。</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お兄ちゃん! ねこクッキーが食べたい。</t>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、ラスクを食べてみたい！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、ビスコッティってなぁに？</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>たまごの入った、濃厚なクッキー。兄ちゃん、作れないかな？</t>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスクが食べたいなぁ。</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紫の、つぶつぶがのってるクッキー..なんだっけ？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カリカリしたお菓子が食べたいなぁ。</t>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジの風味のクッキーが食べたいなぁ。</t>
+    <rPh sb="5" eb="7">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ねこクッキーが食べたいなぁ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Non</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見た目がかわいいのがいい！</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、バターをいれると、さくさくになるかも..？</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -702,12 +712,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -743,21 +753,21 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -773,10 +783,10 @@
         <v>9999</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -785,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -809,10 +819,10 @@
         <v>9999</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -821,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -845,7 +855,7 @@
         <v>9999</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
@@ -857,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -881,10 +891,10 @@
         <v>9999</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -893,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -917,10 +927,10 @@
         <v>9999</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -929,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -953,10 +963,10 @@
         <v>9999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -965,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -989,10 +999,10 @@
         <v>9999</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1001,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1016,7 +1026,7 @@
         <v>1010</v>
       </c>
       <c r="C9" s="2">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>9999</v>
@@ -1025,10 +1035,10 @@
         <v>9999</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1037,9 +1047,45 @@
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D97B531-3748-4CCA-A62E-26DFFF03F358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7C033E-B428-43DC-8C56-29F76C56CB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="3060" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -714,10 +714,10 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -727,6 +727,8 @@
     <col min="3" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.28515625" customWidth="1"/>
     <col min="7" max="7" width="40.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7C033E-B428-43DC-8C56-29F76C56CB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA77F1AD-7913-431A-8F70-402DFC001EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3060" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="3405" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>desc</t>
   </si>
@@ -225,13 +225,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ビスコッティが食べたい。</t>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>お兄ちゃん! ねこクッキーが食べたい。</t>
     <rPh sb="14" eb="15">
       <t>タ</t>
@@ -249,13 +242,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>兄ちゃん、ビスコッティってなぁに？</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>たまごの入った、濃厚なクッキー。兄ちゃん、作れないかな？</t>
     <rPh sb="4" eb="5">
       <t>ハイ</t>
@@ -304,10 +290,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Non</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>見た目がかわいいのがいい！</t>
     <rPh sb="0" eb="1">
       <t>ミ</t>
@@ -321,6 +303,37 @@
     <t>兄ちゃん、バターをいれると、さくさくになるかも..？</t>
     <rPh sb="0" eb="1">
       <t>ニイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、クレープを食べてみたいなぁ！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜自由＞ラスクが食べたい。</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜自由＞クレープが食べたい。</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甘酸っぱいクレープがいいなぁ！</t>
+    <rPh sb="0" eb="2">
+      <t>アマズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -717,7 +730,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -785,7 +798,7 @@
         <v>9999</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
@@ -821,7 +834,7 @@
         <v>9999</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
@@ -857,7 +870,7 @@
         <v>9999</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
@@ -893,7 +906,7 @@
         <v>9999</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
@@ -929,7 +942,7 @@
         <v>9999</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
@@ -965,7 +978,7 @@
         <v>9999</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>21</v>
@@ -1001,7 +1014,7 @@
         <v>9999</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>11</v>
@@ -1013,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1037,10 +1050,10 @@
         <v>9999</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1049,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1064,7 +1077,7 @@
         <v>1020</v>
       </c>
       <c r="C10" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
         <v>9999</v>
@@ -1073,10 +1086,10 @@
         <v>9999</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1085,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA77F1AD-7913-431A-8F70-402DFC001EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDAFB05-304F-447B-A9CB-07E3CA4E3090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3405" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -727,10 +727,10 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="C9" s="2">
         <v>30</v>
@@ -1074,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="C10" s="2">
         <v>60</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDAFB05-304F-447B-A9CB-07E3CA4E3090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7379076-F5EF-4134-93A2-D86D8990C005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2790" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>desc</t>
   </si>
@@ -334,6 +334,26 @@
     <t>甘酸っぱいクレープがいいなぁ！</t>
     <rPh sb="0" eb="2">
       <t>アマズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、まんまるでもこもこのパンのお菓子を食べてみたいなぁ！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜自由＞シュークリームが食べたい。</t>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -725,12 +745,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -782,7 +802,7 @@
     </row>
     <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -1101,6 +1121,40 @@
         <v>37</v>
       </c>
       <c r="K10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="2">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7379076-F5EF-4134-93A2-D86D8990C005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BE2D55-5F14-41ED-8E21-6D118B5939CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2790" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3480" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>desc</t>
   </si>
@@ -354,6 +354,102 @@
     <t>＜自由＞シュークリームが食べたい。</t>
     <rPh sb="12" eb="13">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spquest_name1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spquest_name2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ねこクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>うまいぞ！　兄ちゃんのクッキー！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスクとありんこ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クレープでしあわせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幻！シュークリーム！！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドーナツ食べたい！</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、真ん中にわっかの穴が開いてるお菓子ってなぁに？</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜自由＞ドーナツが食べたい。</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スーパードーナツを追え！！</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クッキーを作ろう！！</t>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まんまるもこもこのパン？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふんわりクレープを食べたい！</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カリカリラスクを作ろう！</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -362,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -392,6 +488,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -419,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -428,6 +530,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -745,12 +848,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -758,14 +861,16 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="60.28515625" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.28515625" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -782,27 +887,33 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A12" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -817,26 +928,32 @@
       <c r="E2" s="2">
         <v>9999</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="b">
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -853,26 +970,32 @@
       <c r="E3" s="2">
         <v>9999</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="b">
+      <c r="M3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -889,26 +1012,32 @@
       <c r="E4" s="2">
         <v>9999</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="b">
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -925,26 +1054,32 @@
       <c r="E5" s="2">
         <v>9999</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="b">
+      <c r="M5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -961,26 +1096,32 @@
       <c r="E6" s="2">
         <v>9999</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="b">
+      <c r="M6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -997,26 +1138,32 @@
       <c r="E7" s="2">
         <v>9999</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="b">
+      <c r="M7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1033,26 +1180,32 @@
       <c r="E8" s="2">
         <v>9999</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K8" t="b">
+      <c r="M8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1069,26 +1222,32 @@
       <c r="E9" s="2">
         <v>9999</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="b">
+      <c r="M9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1105,26 +1264,32 @@
       <c r="E10" s="2">
         <v>9999</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K10" t="b">
+      <c r="M10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1141,20 +1306,66 @@
       <c r="E11" s="2">
         <v>9999</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" t="b">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C12" s="2">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BE2D55-5F14-41ED-8E21-6D118B5939CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49C32AE-1CE0-4D4E-BCD8-A76E83172D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="3480" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="2670" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>desc</t>
   </si>
@@ -451,6 +451,37 @@
     <rPh sb="8" eb="9">
       <t>ツク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>来たぞ！コンテスト！！</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お母さんの味</t>
+    <rPh sb="1" eb="2">
+      <t>カア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん！今日はコンテスト！！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜自由＞ステージ１　ラスト　コンテスト</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -848,12 +879,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -913,7 +944,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A12" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -1366,6 +1397,46 @@
       </c>
       <c r="L12" s="5"/>
       <c r="M12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49C32AE-1CE0-4D4E-BCD8-A76E83172D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4040B2-04A6-4780-B639-F87799802DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2670" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="3585" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>desc</t>
   </si>
@@ -482,6 +482,13 @@
   </si>
   <si>
     <t>＜自由＞ステージ１　ラスト　コンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん！　ピンクのつぶつぶ.. ほしいな～！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -881,10 +888,10 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1369,7 +1376,7 @@
         <v>1400</v>
       </c>
       <c r="C12" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2">
         <v>9999</v>
@@ -1395,7 +1402,9 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4040B2-04A6-4780-B639-F87799802DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3384A85A-F475-4318-AE1B-D3A4C253CC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="3585" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -888,10 +888,10 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1418,13 +1418,13 @@
         <v>1500</v>
       </c>
       <c r="C13" s="2">
-        <v>70</v>
+        <v>1010</v>
       </c>
       <c r="D13" s="2">
-        <v>9999</v>
+        <v>1020</v>
       </c>
       <c r="E13" s="2">
-        <v>9999</v>
+        <v>1030</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>55</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3384A85A-F475-4318-AE1B-D3A4C253CC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9912B8E0-8837-47A9-B0D1-8A6CE00737FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -331,13 +331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>甘酸っぱいクレープがいいなぁ！</t>
-    <rPh sb="0" eb="2">
-      <t>アマズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>兄ちゃん、まんまるでもこもこのパンのお菓子を食べてみたいなぁ！</t>
     <rPh sb="0" eb="1">
       <t>ニイ</t>
@@ -386,13 +379,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ドーナツ食べたい！</t>
-    <rPh sb="4" eb="5">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>兄ちゃん、真ん中にわっかの穴が開いてるお菓子ってなぁに？</t>
     <rPh sb="0" eb="1">
       <t>ニイ</t>
@@ -422,13 +408,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スーパードーナツを追え！！</t>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クッキーを作ろう！！</t>
     <rPh sb="5" eb="6">
       <t>ツク</t>
@@ -489,6 +468,21 @@
     <rPh sb="0" eb="1">
       <t>ニイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何かがものたりない..。</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スーパードーナツを追え！！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひとつの願いごと</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -891,7 +885,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -925,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -967,10 +961,10 @@
         <v>9999</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>31</v>
@@ -1009,10 +1003,10 @@
         <v>9999</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>30</v>
@@ -1051,10 +1045,10 @@
         <v>9999</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>29</v>
@@ -1093,10 +1087,10 @@
         <v>9999</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>28</v>
@@ -1135,10 +1129,10 @@
         <v>9999</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>27</v>
@@ -1177,10 +1171,10 @@
         <v>9999</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>26</v>
@@ -1219,10 +1213,10 @@
         <v>9999</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>24</v>
@@ -1261,10 +1255,10 @@
         <v>9999</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>25</v>
@@ -1303,10 +1297,10 @@
         <v>9999</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>34</v>
@@ -1321,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1345,16 +1339,16 @@
         <v>9999</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1385,17 +1379,17 @@
         <v>9999</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
@@ -1403,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1427,16 +1421,16 @@
         <v>1030</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9912B8E0-8837-47A9-B0D1-8A6CE00737FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C35E21B-9E6D-49C6-830B-7523B85A66CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="1440" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1412,13 +1412,13 @@
         <v>1500</v>
       </c>
       <c r="C13" s="2">
-        <v>1010</v>
+        <v>9999</v>
       </c>
       <c r="D13" s="2">
-        <v>1020</v>
+        <v>9999</v>
       </c>
       <c r="E13" s="2">
-        <v>1030</v>
+        <v>9999</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C35E21B-9E6D-49C6-830B-7523B85A66CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA63A8-E9D0-483A-888B-E8F290F05CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="1440" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2520" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -440,16 +440,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お母さんの味</t>
-    <rPh sb="1" eb="2">
-      <t>カア</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>兄ちゃん！今日はコンテスト！！</t>
     <rPh sb="0" eb="1">
       <t>ニイ</t>
@@ -478,11 +468,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スーパードーナツを追え！！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ひとつの願いごと</t>
+    <t>ピンクのドーナツを追え！！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ままの味</t>
+    <rPh sb="3" eb="4">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヤモリの願いごと</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -885,7 +882,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1379,7 +1376,7 @@
         <v>9999</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>59</v>
@@ -1397,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1424,13 +1421,13 @@
         <v>52</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AA63A8-E9D0-483A-888B-E8F290F05CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF3A3D1-F6F5-48C3-92D1-13C811DC209E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2520" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +535,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -550,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -560,6 +566,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -882,7 +896,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -940,255 +954,255 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
         <v>200</v>
       </c>
-      <c r="D2" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="7">
+        <v>9999</v>
+      </c>
+      <c r="E2" s="7">
+        <v>9999</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="b">
+      <c r="M2" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>201</v>
       </c>
-      <c r="E3" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="7">
+        <v>9999</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="b">
+      <c r="M3" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>221</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="7">
+        <v>9999</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="b">
+      <c r="M4" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>208</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>21</v>
       </c>
-      <c r="E5" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="7">
+        <v>9999</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M5" t="b">
+      <c r="M5" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>30</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>221</v>
       </c>
-      <c r="D6" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="7">
+        <v>9999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>9999</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="b">
+      <c r="M6" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>40</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>40</v>
       </c>
-      <c r="D7" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="7">
+        <v>9999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>9999</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="b">
+      <c r="M7" s="11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF3A3D1-F6F5-48C3-92D1-13C811DC209E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D77B85-FB50-420E-B8F2-3685ABB3B494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>desc</t>
   </si>
@@ -480,6 +480,51 @@
   </si>
   <si>
     <t>ヤモリの願いごと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜自由＞クッキー系２</t>
+    <rPh sb="1" eb="3">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お兄ちゃん! ぶどうクッキーが食べたい。</t>
+    <rPh sb="15" eb="16">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどうクッキーを作ろう！！</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すっぱいラスクを作ろう！</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、すっぱいラスクを食べてみたい！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -891,12 +936,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -956,7 +1001,7 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1254,10 +1299,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1100</v>
+        <v>1010</v>
       </c>
       <c r="C9" s="2">
-        <v>30</v>
+        <v>508</v>
       </c>
       <c r="D9" s="2">
         <v>9999</v>
@@ -1266,16 +1311,16 @@
         <v>9999</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1283,9 +1328,7 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="L9" s="5"/>
       <c r="M9" t="b">
         <v>0</v>
       </c>
@@ -1296,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C10" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>9999</v>
@@ -1308,16 +1351,16 @@
         <v>9999</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1326,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1338,28 +1381,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1300</v>
+        <v>1110</v>
       </c>
       <c r="C11" s="2">
-        <v>70</v>
+        <v>532</v>
       </c>
       <c r="D11" s="2">
-        <v>9999</v>
+        <v>533</v>
       </c>
       <c r="E11" s="2">
         <v>9999</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -1378,10 +1421,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="C12" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2">
         <v>9999</v>
@@ -1390,16 +1433,16 @@
         <v>9999</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1408,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1420,10 +1463,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="C13" s="2">
-        <v>9999</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2">
         <v>9999</v>
@@ -1432,16 +1475,16 @@
         <v>9999</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1452,6 +1495,93 @@
       <c r="L13" s="5"/>
       <c r="M13" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C14" s="2">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="46:46" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AT32">
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D77B85-FB50-420E-B8F2-3685ABB3B494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB73A1A8-F67E-4742-8E24-9420B22D3001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="01_Stage1_Set" sheetId="1" r:id="rId1"/>
+    <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -932,30 +932,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AT32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-    <col min="8" max="8" width="60.28515625" customWidth="1"/>
-    <col min="9" max="9" width="40.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="9" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,7 +990,7 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1043,7 +1032,7 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="7">
@@ -1085,7 +1074,7 @@
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="7">
@@ -1127,7 +1116,7 @@
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="B5" s="7">
@@ -1169,7 +1158,7 @@
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -1211,7 +1200,7 @@
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
       <c r="B7" s="7">
@@ -1253,7 +1242,7 @@
     </row>
     <row r="8" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -1295,7 +1284,7 @@
     </row>
     <row r="9" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -1335,7 +1324,7 @@
     </row>
     <row r="10" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -1377,17 +1366,17 @@
     </row>
     <row r="11" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>1110</v>
       </c>
       <c r="C11" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D11" s="2">
-        <v>533</v>
+        <v>9999</v>
       </c>
       <c r="E11" s="2">
         <v>9999</v>
@@ -1417,7 +1406,7 @@
     </row>
     <row r="12" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>10</v>
       </c>
       <c r="B12" s="2">
@@ -1459,7 +1448,7 @@
     </row>
     <row r="13" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -1499,7 +1488,7 @@
     </row>
     <row r="14" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -1541,7 +1530,7 @@
     </row>
     <row r="15" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -1577,16 +1566,11 @@
       <c r="L15" s="5"/>
       <c r="M15" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="46:46" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AT32">
-        <v>533</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB73A1A8-F67E-4742-8E24-9420B22D3001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739A2A36-D2C4-47AF-9A0B-CDFDEDDCD0A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="2550" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,7 +990,7 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1032,7 +1032,7 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="7">
@@ -1074,7 +1074,7 @@
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="7">
@@ -1116,7 +1116,7 @@
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="7">
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -1200,7 +1200,7 @@
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="7">
@@ -1242,7 +1242,7 @@
     </row>
     <row r="8" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -1284,7 +1284,7 @@
     </row>
     <row r="9" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -1324,7 +1324,7 @@
     </row>
     <row r="10" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -1366,17 +1366,17 @@
     </row>
     <row r="11" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>1110</v>
       </c>
       <c r="C11" s="2">
+        <v>532</v>
+      </c>
+      <c r="D11" s="2">
         <v>533</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9999</v>
       </c>
       <c r="E11" s="2">
         <v>9999</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="12" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="2">
@@ -1448,7 +1448,7 @@
     </row>
     <row r="13" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -1488,7 +1488,7 @@
     </row>
     <row r="14" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -1530,7 +1530,7 @@
     </row>
     <row r="15" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="2">

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739A2A36-D2C4-47AF-9A0B-CDFDEDDCD0A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3BDB49-4C8B-4876-9712-C0E5F82823AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="2565" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1373,10 +1373,10 @@
         <v>1110</v>
       </c>
       <c r="C11" s="2">
-        <v>532</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
-        <v>533</v>
+        <v>9999</v>
       </c>
       <c r="E11" s="2">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3BDB49-4C8B-4876-9712-C0E5F82823AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDF9DD0-EF97-49F5-94FA-D03F8E9CFF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2565" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="2370" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1331,7 +1331,7 @@
         <v>1100</v>
       </c>
       <c r="C10" s="2">
-        <v>30</v>
+        <v>531</v>
       </c>
       <c r="D10" s="2">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDF9DD0-EF97-49F5-94FA-D03F8E9CFF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2258FA-DE36-4C87-948B-48DFC73891A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2370" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>desc</t>
   </si>
@@ -524,6 +524,36 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かわいいクッキーを作ろう！！</t>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お兄ちゃん! かわいい見た目のクッキーが食べたい。</t>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜自由＞クッキー系３</t>
+    <rPh sb="1" eb="3">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -933,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -990,7 +1020,7 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1249,7 +1279,7 @@
         <v>1000</v>
       </c>
       <c r="C8" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
         <v>9999</v>
@@ -1274,9 +1304,6 @@
       </c>
       <c r="K8" s="2">
         <v>0</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -1328,10 +1355,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1100</v>
+        <v>1020</v>
       </c>
       <c r="C10" s="2">
-        <v>531</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <v>9999</v>
@@ -1340,16 +1367,16 @@
         <v>9999</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1358,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1370,10 +1397,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="C11" s="2">
-        <v>31</v>
+        <v>531</v>
       </c>
       <c r="D11" s="2">
         <v>9999</v>
@@ -1382,13 +1409,13 @@
         <v>9999</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>35</v>
@@ -1399,7 +1426,9 @@
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
@@ -1410,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1200</v>
+        <v>1110</v>
       </c>
       <c r="C12" s="2">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>9999</v>
@@ -1422,16 +1451,16 @@
         <v>9999</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1439,9 +1468,7 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="L12" s="5"/>
       <c r="M12" t="b">
         <v>0</v>
       </c>
@@ -1452,10 +1479,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C13" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2">
         <v>9999</v>
@@ -1464,16 +1491,16 @@
         <v>9999</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1481,7 +1508,9 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
@@ -1492,10 +1521,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C14" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2">
         <v>9999</v>
@@ -1504,16 +1533,16 @@
         <v>9999</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1521,9 +1550,7 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="L14" s="5"/>
       <c r="M14" t="b">
         <v>0</v>
       </c>
@@ -1534,37 +1561,79 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C15" s="2">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
         <v>1500</v>
       </c>
-      <c r="C15" s="2">
-        <v>9999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="C16" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" t="b">
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2258FA-DE36-4C87-948B-48DFC73891A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF420CA-0956-4246-83B1-A42DC8076ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="2715" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -493,20 +493,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お兄ちゃん! ぶどうクッキーが食べたい。</t>
-    <rPh sb="15" eb="16">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ぶどうクッキーを作ろう！！</t>
-    <rPh sb="8" eb="9">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -554,6 +540,23 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むらさき色のクッキーを作ろう！！</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お兄ちゃん! ..むらさきの、あまずっぱいクッキーが食べたい。</t>
+    <rPh sb="26" eb="27">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -966,7 +969,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1327,13 +1330,13 @@
         <v>9999</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>60</v>
@@ -1367,16 +1370,16 @@
         <v>9999</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1451,13 +1454,13 @@
         <v>9999</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>35</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF420CA-0956-4246-83B1-A42DC8076ED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437F7A9-F0BC-4FD0-9F21-AC8B5F43330E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2715" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3495" yWindow="885" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -969,7 +969,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1324,7 +1324,7 @@
         <v>508</v>
       </c>
       <c r="D9" s="2">
-        <v>9999</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>9999</v>
@@ -1406,7 +1406,7 @@
         <v>531</v>
       </c>
       <c r="D11" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437F7A9-F0BC-4FD0-9F21-AC8B5F43330E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD447D2-D1B3-4DAC-9D26-309F915C726B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="885" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>desc</t>
   </si>
@@ -556,6 +556,57 @@
   <si>
     <t>お兄ちゃん! ..むらさきの、あまずっぱいクッキーが食べたい。</t>
     <rPh sb="26" eb="27">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、ちょっと豪華なクレープが食べたい！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豪華なクレープを食べたい！</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もっとフルーツとかトッピング盛沢山ならいいなぁ～・・。</t>
+    <rPh sb="14" eb="17">
+      <t>モリダクサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイスクリームが食べたい！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>兄ちゃん、アイスクリームが食べたい！</t>
+    <rPh sb="0" eb="1">
+      <t>ニイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜自由＞アイスクリームが食べたい。</t>
+    <rPh sb="12" eb="13">
       <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -966,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1074,7 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1524,28 +1575,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1300</v>
+        <v>1210</v>
       </c>
       <c r="C14" s="2">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1553,7 +1604,9 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
@@ -1564,10 +1617,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1400</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>9999</v>
@@ -1576,16 +1629,16 @@
         <v>9999</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1594,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1606,10 +1659,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="C16" s="2">
-        <v>9999</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2">
         <v>9999</v>
@@ -1618,16 +1671,16 @@
         <v>9999</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1637,6 +1690,88 @@
       </c>
       <c r="L16" s="5"/>
       <c r="M16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C17" s="2">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD447D2-D1B3-4DAC-9D26-309F915C726B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8639EA5-AADB-4DE9-9CBD-03EFB0F0F51D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="2400" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1375,7 +1375,7 @@
         <v>508</v>
       </c>
       <c r="D9" s="2">
-        <v>21</v>
+        <v>9999</v>
       </c>
       <c r="E9" s="2">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8639EA5-AADB-4DE9-9CBD-03EFB0F0F51D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C163791-C92C-4C75-8E00-472469F7AF3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2400" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1412,13 +1412,13 @@
         <v>1020</v>
       </c>
       <c r="C10" s="2">
+        <v>509</v>
+      </c>
+      <c r="D10" s="2">
+        <v>511</v>
+      </c>
+      <c r="E10" s="2">
         <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9999</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>64</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C163791-C92C-4C75-8E00-472469F7AF3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA345588-12C1-4C76-A279-D13A70AB70D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>desc</t>
   </si>
@@ -371,10 +371,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クレープでしあわせ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>幻！シュークリーム！！</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -479,10 +475,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ヤモリの願いごと</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜自由＞クッキー系２</t>
     <rPh sb="1" eb="3">
       <t>ジユウ</t>
@@ -609,6 +601,28 @@
     <rPh sb="12" eb="13">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>spquest_name3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しあわせの味</t>
+    <rPh sb="5" eb="6">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベッドの上のまま</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひとつの願いごと</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1017,21 +1031,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="9" width="27.5703125" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" customWidth="1"/>
+    <col min="7" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="10" width="27.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,25 +1068,28 @@
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
         <v>0</v>
@@ -1095,26 +1112,29 @@
       <c r="G2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7">
+      <c r="K2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="11" t="b">
+      <c r="N2" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1137,26 +1157,29 @@
       <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="11" t="b">
+      <c r="N3" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1179,26 +1202,29 @@
       <c r="G4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="11" t="b">
+      <c r="N4" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1221,26 +1247,29 @@
       <c r="G5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>2</v>
       </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="11" t="b">
+      <c r="N5" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1263,26 +1292,29 @@
       <c r="G6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="7">
         <v>2</v>
       </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="11" t="b">
+      <c r="N6" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1305,26 +1337,29 @@
       <c r="G7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>3</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="11" t="b">
+      <c r="N7" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1342,28 +1377,31 @@
         <v>9999</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" t="b">
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1381,29 +1419,32 @@
         <v>9999</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" t="b">
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1421,31 +1462,34 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M10" t="b">
+      <c r="N10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1463,31 +1507,34 @@
         <v>9999</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M11" t="b">
+      <c r="N11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1505,29 +1552,32 @@
         <v>9999</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" t="b">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1545,31 +1595,34 @@
         <v>9999</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M13" t="b">
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1587,31 +1640,34 @@
         <v>9999</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" t="b">
+      <c r="N14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1629,31 +1685,34 @@
         <v>9999</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" t="b">
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1671,29 +1730,32 @@
         <v>9999</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" t="b">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1711,31 +1773,34 @@
         <v>9999</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" t="b">
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1753,25 +1818,28 @@
         <v>9999</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" t="b">
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA345588-12C1-4C76-A279-D13A70AB70D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3DCF6-BBE2-40AB-AFD8-C49331FC69DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -576,13 +576,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>もっとフルーツとかトッピング盛沢山ならいいなぁ～・・。</t>
-    <rPh sb="14" eb="17">
-      <t>モリダクサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アイスクリームが食べたい！</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -608,13 +601,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>しあわせの味</t>
-    <rPh sb="5" eb="6">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ベッドの上のまま</t>
     <rPh sb="4" eb="5">
       <t>ウエ</t>
@@ -623,6 +609,20 @@
   </si>
   <si>
     <t>ひとつの願いごと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豪華さが足りないよ～・・にいちゃん。</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しあわせのクレープ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1068,7 @@
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>34</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>1220</v>
+        <v>9999</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
@@ -1685,7 +1685,7 @@
         <v>9999</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>59</v>
@@ -1694,10 +1694,10 @@
         <v>59</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>56</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>45</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3DCF6-BBE2-40AB-AFD8-C49331FC69DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4EEB01-1F05-4255-A821-83830AD3F1FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -608,10 +608,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ひとつの願いごと</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>豪華さが足りないよ～・・にいちゃん。</t>
     <rPh sb="0" eb="2">
       <t>ゴウカ</t>
@@ -623,6 +619,10 @@
   </si>
   <si>
     <t>しあわせのクレープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>やもりの願いごと</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1598,7 +1598,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>73</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>56</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>45</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4EEB01-1F05-4255-A821-83830AD3F1FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54331C-6421-49B6-9D24-05D010E7C73D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="3450" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t>desc</t>
   </si>
@@ -225,23 +225,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お兄ちゃん! ねこクッキーが食べたい。</t>
-    <rPh sb="14" eb="15">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>兄ちゃん、ラスクを食べてみたい！</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>たまごの入った、濃厚なクッキー。兄ちゃん、作れないかな？</t>
     <rPh sb="4" eb="5">
       <t>ハイ</t>
@@ -307,16 +290,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>兄ちゃん、クレープを食べてみたいなぁ！</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜自由＞ラスクが食べたい。</t>
     <rPh sb="8" eb="9">
       <t>タ</t>
@@ -331,19 +304,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>兄ちゃん、まんまるでもこもこのパンのお菓子を食べてみたいなぁ！</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜自由＞シュークリームが食べたい。</t>
     <rPh sb="12" eb="13">
       <t>タ</t>
@@ -375,28 +335,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>兄ちゃん、真ん中にわっかの穴が開いてるお菓子ってなぁに？</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜自由＞ドーナツが食べたい。</t>
     <rPh sb="9" eb="10">
       <t>タ</t>
@@ -496,16 +434,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>兄ちゃん、すっぱいラスクを食べてみたい！</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>かわいいクッキーを作ろう！！</t>
     <rPh sb="9" eb="10">
       <t>ツク</t>
@@ -513,19 +441,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お兄ちゃん! かわいい見た目のクッキーが食べたい。</t>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜自由＞クッキー系３</t>
     <rPh sb="1" eb="3">
       <t>ジユウ</t>
@@ -546,26 +461,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お兄ちゃん! ..むらさきの、あまずっぱいクッキーが食べたい。</t>
-    <rPh sb="26" eb="27">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>兄ちゃん、ちょっと豪華なクレープが食べたい！</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゴウカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>豪華なクレープを食べたい！</t>
     <rPh sb="0" eb="2">
       <t>ゴウカ</t>
@@ -580,16 +475,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>兄ちゃん、アイスクリームが食べたい！</t>
-    <rPh sb="0" eb="1">
-      <t>ニイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜自由＞アイスクリームが食べたい。</t>
     <rPh sb="12" eb="13">
       <t>タ</t>
@@ -623,6 +508,85 @@
   </si>
   <si>
     <t>やもりの願いごと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むらさきの、あまずっぱいクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かわいい見た目のクッキー</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すっぱいラスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クレープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豪華なクレープ</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイスクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まんまるでもこもこのパンのお菓子</t>
+    <rPh sb="14" eb="16">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真ん中にわっかの穴が開いてるお菓子</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>grape_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>neko_cookie_aizan</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -630,7 +594,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -666,6 +630,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -699,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -717,6 +687,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1031,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1043,9 +1015,10 @@
     <col min="7" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="10" width="27.5703125" customWidth="1"/>
     <col min="13" max="13" width="28.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1062,13 +1035,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -1088,8 +1061,11 @@
       <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
         <v>0</v>
@@ -1107,16 +1083,16 @@
         <v>9999</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>8</v>
@@ -1133,8 +1109,11 @@
       <c r="N2" s="11" t="b">
         <v>0</v>
       </c>
+      <c r="O2" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1152,16 +1131,16 @@
         <v>9999</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>9</v>
@@ -1178,8 +1157,11 @@
       <c r="N3" s="11" t="b">
         <v>0</v>
       </c>
+      <c r="O3" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1197,16 +1179,16 @@
         <v>9999</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>5</v>
@@ -1223,8 +1205,11 @@
       <c r="N4" s="11" t="b">
         <v>0</v>
       </c>
+      <c r="O4" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1242,16 +1227,16 @@
         <v>9999</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>19</v>
@@ -1268,8 +1253,11 @@
       <c r="N5" s="11" t="b">
         <v>0</v>
       </c>
+      <c r="O5" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1287,16 +1275,16 @@
         <v>9999</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>13</v>
@@ -1313,8 +1301,11 @@
       <c r="N6" s="11" t="b">
         <v>0</v>
       </c>
+      <c r="O6" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1332,16 +1323,16 @@
         <v>9999</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>21</v>
@@ -1358,8 +1349,11 @@
       <c r="N7" s="11" t="b">
         <v>0</v>
       </c>
+      <c r="O7" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1377,16 +1371,16 @@
         <v>9999</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>11</v>
@@ -1400,8 +1394,11 @@
       <c r="N8" t="b">
         <v>0</v>
       </c>
+      <c r="O8" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1419,19 +1416,19 @@
         <v>9999</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1443,8 +1440,11 @@
       <c r="N9" t="b">
         <v>0</v>
       </c>
+      <c r="O9" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1462,19 +1462,19 @@
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -1483,13 +1483,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
+      <c r="O10" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1507,19 +1510,19 @@
         <v>9999</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1528,13 +1531,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
+      <c r="O11" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1552,19 +1558,19 @@
         <v>9999</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1576,8 +1582,11 @@
       <c r="N12" t="b">
         <v>0</v>
       </c>
+      <c r="O12" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1595,19 +1604,19 @@
         <v>9999</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -1616,13 +1625,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
+      <c r="O13" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1640,19 +1652,19 @@
         <v>9999</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -1661,13 +1673,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
+      <c r="O14" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1685,19 +1700,19 @@
         <v>9999</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -1706,13 +1721,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
+      <c r="O15" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1730,19 +1748,19 @@
         <v>9999</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -1754,8 +1772,11 @@
       <c r="N16" t="b">
         <v>0</v>
       </c>
+      <c r="O16" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1773,19 +1794,19 @@
         <v>9999</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -1794,13 +1815,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
+      <c r="O17" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1818,19 +1842,19 @@
         <v>9999</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -1841,6 +1865,9 @@
       <c r="M18" s="5"/>
       <c r="N18" t="b">
         <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54331C-6421-49B6-9D24-05D010E7C73D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29523640-21F5-4D8A-B726-D8ADADA5F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3450" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="1920" windowWidth="21600" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>desc</t>
   </si>
@@ -587,6 +587,67 @@
   </si>
   <si>
     <t>neko_cookie_aizan</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_butter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tea_violatte</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crepe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crepe_hutago</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>icecream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>creampuff</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>donuts_pinkcharlotte</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幻の青色紅茶を作ろう！</t>
+    <rPh sb="0" eb="1">
+      <t>マボロシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幻の青色紅茶</t>
+    <rPh sb="0" eb="1">
+      <t>マボロシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウチャ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1003,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1128,7 @@
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1537,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1592,10 +1653,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="C13" s="2">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>9999</v>
@@ -1604,19 +1665,19 @@
         <v>9999</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -1624,14 +1685,12 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="M13" s="5"/>
       <c r="N13" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1640,10 +1699,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="C14" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2">
         <v>9999</v>
@@ -1652,16 +1711,16 @@
         <v>9999</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>33</v>
@@ -1673,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1688,10 +1747,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>9999</v>
+        <v>1210</v>
       </c>
       <c r="C15" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2">
         <v>9999</v>
@@ -1700,7 +1759,7 @@
         <v>9999</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>54</v>
@@ -1709,10 +1768,10 @@
         <v>54</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -1721,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1736,10 +1795,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>1300</v>
+        <v>9999</v>
       </c>
       <c r="C16" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>9999</v>
@@ -1748,19 +1807,19 @@
         <v>9999</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -1768,12 +1827,14 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="N16" t="b">
         <v>0</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1782,10 +1843,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C17" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2">
         <v>9999</v>
@@ -1794,19 +1855,19 @@
         <v>9999</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -1814,14 +1875,12 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1830,43 +1889,91 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C18" s="2">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
         <v>1500</v>
       </c>
-      <c r="C18" s="2">
-        <v>9999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E18" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="C19" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14" t="s">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29523640-21F5-4D8A-B726-D8ADADA5F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD9949D-C4FC-4CB6-BEA8-EF63F170C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1920" windowWidth="21600" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33705" yWindow="1140" windowWidth="17775" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>desc</t>
   </si>
@@ -648,6 +648,17 @@
     <rPh sb="4" eb="6">
       <t>コウチャ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜分岐＞</t>
+    <rPh sb="1" eb="3">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>next_questID</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1064,22 +1075,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="10" width="27.5703125" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="11" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,46 +1098,49 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
         <v>0</v>
@@ -1135,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
         <v>200</v>
       </c>
-      <c r="D2" s="7">
-        <v>9999</v>
-      </c>
       <c r="E2" s="7">
         <v>9999</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>37</v>
+      <c r="F2" s="7">
+        <v>9999</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>37</v>
@@ -1152,29 +1166,32 @@
       <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>1</v>
       </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1183,16 +1200,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <v>10</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>201</v>
       </c>
-      <c r="E3" s="7">
-        <v>9999</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>37</v>
+      <c r="F3" s="7">
+        <v>9999</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>37</v>
@@ -1200,29 +1217,32 @@
       <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1231,16 +1251,16 @@
         <v>15</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>221</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
-        <v>9999</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>37</v>
+      <c r="F4" s="7">
+        <v>9999</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>37</v>
@@ -1248,29 +1268,32 @@
       <c r="H4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1279,16 +1302,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>208</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="7">
         <v>21</v>
       </c>
-      <c r="E5" s="7">
-        <v>9999</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>37</v>
+      <c r="F5" s="7">
+        <v>9999</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>37</v>
@@ -1296,29 +1319,32 @@
       <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>2</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1327,16 +1353,16 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <v>221</v>
       </c>
-      <c r="D6" s="7">
-        <v>9999</v>
-      </c>
       <c r="E6" s="7">
         <v>9999</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>37</v>
+      <c r="F6" s="7">
+        <v>9999</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>37</v>
@@ -1344,29 +1370,32 @@
       <c r="H6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>2</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1375,16 +1404,16 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
-        <v>9999</v>
-      </c>
       <c r="E7" s="7">
         <v>9999</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
+      <c r="F7" s="7">
+        <v>9999</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>37</v>
@@ -1392,29 +1421,32 @@
       <c r="H7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>3</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1423,43 +1455,46 @@
         <v>1000</v>
       </c>
       <c r="C8" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
-        <v>9999</v>
-      </c>
       <c r="E8" s="2">
         <v>9999</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>42</v>
+      <c r="F8" s="2">
+        <v>9999</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14" t="s">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1468,44 +1503,47 @@
         <v>1010</v>
       </c>
       <c r="C9" s="2">
+        <v>1020</v>
+      </c>
+      <c r="D9" s="2">
         <v>508</v>
       </c>
-      <c r="D9" s="2">
-        <v>9999</v>
-      </c>
       <c r="E9" s="2">
         <v>9999</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14" t="s">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1514,46 +1552,49 @@
         <v>1020</v>
       </c>
       <c r="C10" s="2">
+        <v>1100</v>
+      </c>
+      <c r="D10" s="2">
         <v>509</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>511</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>12</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1562,46 +1603,49 @@
         <v>1100</v>
       </c>
       <c r="C11" s="2">
+        <v>1110</v>
+      </c>
+      <c r="D11" s="2">
         <v>531</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>30</v>
       </c>
-      <c r="E11" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>45</v>
+      <c r="F11" s="2">
+        <v>9999</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1610,44 +1654,47 @@
         <v>1110</v>
       </c>
       <c r="C12" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D12" s="2">
         <v>31</v>
       </c>
-      <c r="D12" s="2">
-        <v>9999</v>
-      </c>
       <c r="E12" s="2">
         <v>9999</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14" t="s">
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1656,44 +1703,47 @@
         <v>1120</v>
       </c>
       <c r="C13" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D13" s="2">
         <v>31</v>
       </c>
-      <c r="D13" s="2">
-        <v>9999</v>
-      </c>
       <c r="E13" s="2">
         <v>9999</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
+      <c r="K13" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14" t="s">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1702,46 +1752,49 @@
         <v>1200</v>
       </c>
       <c r="C14" s="2">
+        <v>1210</v>
+      </c>
+      <c r="D14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="2">
-        <v>9999</v>
-      </c>
       <c r="E14" s="2">
         <v>9999</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1750,46 +1803,49 @@
         <v>1210</v>
       </c>
       <c r="C15" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D15" s="2">
         <v>61</v>
       </c>
-      <c r="D15" s="2">
-        <v>9999</v>
-      </c>
       <c r="E15" s="2">
         <v>9999</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1798,46 +1854,49 @@
         <v>9999</v>
       </c>
       <c r="C16" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D16" s="2">
         <v>100</v>
       </c>
-      <c r="D16" s="2">
-        <v>9999</v>
-      </c>
       <c r="E16" s="2">
         <v>9999</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="14" t="s">
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1846,44 +1905,47 @@
         <v>1300</v>
       </c>
       <c r="C17" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D17" s="2">
         <v>70</v>
       </c>
-      <c r="D17" s="2">
-        <v>9999</v>
-      </c>
       <c r="E17" s="2">
         <v>9999</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>43</v>
+      <c r="F17" s="2">
+        <v>9999</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14" t="s">
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1892,46 +1954,49 @@
         <v>1400</v>
       </c>
       <c r="C18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D18" s="2">
         <v>80</v>
       </c>
-      <c r="D18" s="2">
-        <v>9999</v>
-      </c>
       <c r="E18" s="2">
         <v>9999</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>51</v>
+      <c r="F18" s="2">
+        <v>9999</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1948,32 +2013,35 @@
       <c r="E19" s="2">
         <v>9999</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>46</v>
+      <c r="F19" s="2">
+        <v>9999</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14" t="s">
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD9949D-C4FC-4CB6-BEA8-EF63F170C064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9EF936-52D2-4A06-9CB5-7F6DB571EAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33705" yWindow="1140" windowWidth="17775" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="1260" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1706,7 @@
         <v>1200</v>
       </c>
       <c r="D13" s="2">
-        <v>31</v>
+        <v>606</v>
       </c>
       <c r="E13" s="2">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9EF936-52D2-4A06-9CB5-7F6DB571EAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97687B33-FA3B-4A0B-A6DB-CA5A6A4F5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1260" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
   <si>
     <t>desc</t>
   </si>
@@ -461,16 +461,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>豪華なクレープを食べたい！</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アイスクリームが食べたい！</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -537,13 +527,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>豪華なクレープ</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アイスクリーム</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -555,25 +538,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>真ん中にわっかの穴が開いてるお菓子</t>
-    <rPh sb="0" eb="1">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>file_name</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -611,10 +575,6 @@
   </si>
   <si>
     <t>icecream</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>creampuff</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -659,6 +619,82 @@
   </si>
   <si>
     <t>next_questID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>question_item</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキララスクを作ろう！</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキララスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_jewery</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200点を超える最強クレープを食べたい！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200点以上のスーパークレープ</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もっとふわふわがほしいな～。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベリークレープを食べたい！</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベリークレープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真ん中にわっかの穴があいてるお菓子</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カシ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1075,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1098,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1116,7 +1152,7 @@
         <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -1137,12 +1173,12 @@
         <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A21" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1188,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1239,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1290,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1341,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1392,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1524,7 +1560,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>53</v>
@@ -1540,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1573,7 +1609,7 @@
         <v>54</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>57</v>
@@ -1591,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1624,7 +1660,7 @@
         <v>39</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>32</v>
@@ -1642,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1675,7 +1711,7 @@
         <v>54</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>32</v>
@@ -1691,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1715,7 +1751,7 @@
         <v>9999</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>54</v>
@@ -1724,10 +1760,10 @@
         <v>54</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -1740,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1749,34 +1785,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1200</v>
+        <v>1130</v>
       </c>
       <c r="C14" s="2">
-        <v>1210</v>
+        <v>1120</v>
       </c>
       <c r="D14" s="2">
-        <v>60</v>
+        <v>534</v>
       </c>
       <c r="E14" s="2">
-        <v>9999</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2">
         <v>9999</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -1784,14 +1820,12 @@
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="N14" s="5"/>
       <c r="O14" t="b">
         <v>0</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1800,13 +1834,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C15" s="2">
         <v>1210</v>
       </c>
-      <c r="C15" s="2">
-        <v>1300</v>
-      </c>
       <c r="D15" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2">
         <v>9999</v>
@@ -1815,16 +1849,16 @@
         <v>9999</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>33</v>
@@ -1836,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,13 +1885,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>9999</v>
+        <v>1210</v>
       </c>
       <c r="C16" s="2">
         <v>1300</v>
       </c>
       <c r="D16" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2">
         <v>9999</v>
@@ -1866,7 +1900,7 @@
         <v>9999</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>54</v>
@@ -1875,10 +1909,10 @@
         <v>54</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -1887,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1902,13 +1936,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
+        <v>1220</v>
+      </c>
+      <c r="C17" s="2">
         <v>1300</v>
       </c>
-      <c r="C17" s="2">
-        <v>1400</v>
-      </c>
       <c r="D17" s="2">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2">
         <v>9999</v>
@@ -1917,19 +1951,19 @@
         <v>9999</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1937,12 +1971,14 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="N17" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,13 +1987,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>1400</v>
+        <v>9999</v>
       </c>
       <c r="C18" s="2">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D18" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2">
         <v>9999</v>
@@ -1966,19 +2002,19 @@
         <v>9999</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -1987,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2002,13 +2038,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="C19" s="2">
-        <v>9999</v>
+        <v>1400</v>
       </c>
       <c r="D19" s="2">
-        <v>9999</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2">
         <v>9999</v>
@@ -2017,19 +2053,19 @@
         <v>9999</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -2042,7 +2078,107 @@
         <v>0</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>77</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D20" s="2">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97687B33-FA3B-4A0B-A6DB-CA5A6A4F5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2024A88-D0A6-4FAE-A804-D6A275EB1872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3015" yWindow="1395" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -671,13 +671,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ベリークレープを食べたい！</t>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ベリークレープ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -694,6 +687,16 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豪華なベリークレープを食べたい！</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1114,7 +1117,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1900,7 +1903,7 @@
         <v>9999</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>54</v>
@@ -1909,7 +1912,7 @@
         <v>54</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>33</v>
@@ -2102,7 +2105,7 @@
         <v>9999</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>51</v>
@@ -2111,7 +2114,7 @@
         <v>65</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>41</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2024A88-D0A6-4FAE-A804-D6A275EB1872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C1CA43-D897-4762-81EF-B04241BC02E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3015" yWindow="1395" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
   <si>
     <t>desc</t>
   </si>
@@ -697,6 +697,59 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジクレープを食べたい！</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジクレープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crepe_orange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jewery_candy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宝石のキャンディを食べたい！</t>
+    <rPh sb="0" eb="2">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宝石のキャンディ</t>
+    <rPh sb="0" eb="2">
+      <t>ホウセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑のアイスのクレープを食べたい！</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑のアイスのクレープ</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1114,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1234,7 @@
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A21" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A24" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1891,10 +1944,10 @@
         <v>1210</v>
       </c>
       <c r="C16" s="2">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="D16" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2">
         <v>9999</v>
@@ -1903,7 +1956,7 @@
         <v>9999</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>54</v>
@@ -1912,7 +1965,7 @@
         <v>54</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>33</v>
@@ -1923,14 +1976,12 @@
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="N16" s="5"/>
       <c r="O16" t="b">
         <v>0</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1939,13 +1990,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
+        <v>1240</v>
+      </c>
+      <c r="C17" s="2">
         <v>1220</v>
       </c>
-      <c r="C17" s="2">
-        <v>1300</v>
-      </c>
       <c r="D17" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2">
         <v>9999</v>
@@ -1954,7 +2005,7 @@
         <v>9999</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>54</v>
@@ -1962,11 +2013,11 @@
       <c r="I17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>93</v>
+      <c r="J17" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -1974,14 +2025,12 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="N17" s="5"/>
       <c r="O17" t="b">
         <v>0</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,13 +2039,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>9999</v>
+        <v>1220</v>
       </c>
       <c r="C18" s="2">
-        <v>1300</v>
+        <v>1230</v>
       </c>
       <c r="D18" s="2">
-        <v>100</v>
+        <v>720</v>
       </c>
       <c r="E18" s="2">
         <v>9999</v>
@@ -2005,7 +2054,7 @@
         <v>9999</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>54</v>
@@ -2014,10 +2063,10 @@
         <v>54</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -2025,14 +2074,12 @@
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="N18" s="5"/>
       <c r="O18" t="b">
         <v>0</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2041,13 +2088,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
+        <v>1230</v>
+      </c>
+      <c r="C19" s="2">
         <v>1300</v>
       </c>
-      <c r="C19" s="2">
-        <v>1400</v>
-      </c>
       <c r="D19" s="2">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2">
         <v>9999</v>
@@ -2056,19 +2103,19 @@
         <v>9999</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -2076,12 +2123,14 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="O19" t="b">
         <v>0</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2090,13 +2139,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>1400</v>
+        <v>1290</v>
       </c>
       <c r="C20" s="2">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D20" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2">
         <v>9999</v>
@@ -2105,19 +2154,19 @@
         <v>9999</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -2126,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,46 +2190,197 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
+        <v>9999</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D22" s="2">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C23" s="2">
         <v>1500</v>
       </c>
-      <c r="C21" s="2">
-        <v>9999</v>
-      </c>
-      <c r="D21" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E21" s="2">
-        <v>9999</v>
-      </c>
-      <c r="F21" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="D23" s="2">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" s="14" t="s">
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C1CA43-D897-4762-81EF-B04241BC02E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F63B9-3426-4D9A-B637-19B2C82A2C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
   <si>
     <t>desc</t>
   </si>
@@ -751,6 +751,70 @@
     <rPh sb="0" eb="1">
       <t>ミドリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラズベリーのシュークリームが食べたい！</t>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラズベリーのシュークリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カフェオーレシュークリームが食べたい！</t>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カフェオーレシュークリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ティラミスを作ろう！</t>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ティラミス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150点を超えるシュークリームが食べたい！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150点を超えるシュークリーム</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>creampuff_raspberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>creampuff_cafeaulait</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1167,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1298,7 @@
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A24" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A28" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -2244,7 +2308,7 @@
         <v>1300</v>
       </c>
       <c r="C22" s="2">
-        <v>1400</v>
+        <v>1310</v>
       </c>
       <c r="D22" s="2">
         <v>70</v>
@@ -2290,13 +2354,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>1400</v>
+        <v>1310</v>
       </c>
       <c r="C23" s="2">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="D23" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2">
         <v>9999</v>
@@ -2305,19 +2369,19 @@
         <v>9999</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -2325,14 +2389,12 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="N23" s="5"/>
       <c r="O23" t="b">
         <v>0</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2341,13 +2403,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>1500</v>
+        <v>1320</v>
       </c>
       <c r="C24" s="2">
-        <v>9999</v>
+        <v>1330</v>
       </c>
       <c r="D24" s="2">
-        <v>9999</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2">
         <v>9999</v>
@@ -2356,19 +2418,19 @@
         <v>9999</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
@@ -2381,6 +2443,204 @@
         <v>0</v>
       </c>
       <c r="P24" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1330</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1340</v>
+      </c>
+      <c r="D25" s="2">
+        <v>753</v>
+      </c>
+      <c r="E25" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1340</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D26" s="2">
+        <v>70</v>
+      </c>
+      <c r="E26" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D27" s="2">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F27" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F63B9-3426-4D9A-B637-19B2C82A2C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9EAF4A-D5EB-4A2A-AF49-4139390D093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="117">
   <si>
     <t>desc</t>
   </si>
@@ -815,6 +815,10 @@
   </si>
   <si>
     <t>creampuff_cafeaulait</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crepe_icecream_mint</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1234,7 +1238,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2064,7 @@
         <v>1220</v>
       </c>
       <c r="D17" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2">
         <v>9999</v>
@@ -2069,7 +2073,7 @@
         <v>9999</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>54</v>
@@ -2077,11 +2081,11 @@
       <c r="I17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>105</v>
+      <c r="J17" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -2089,12 +2093,14 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="N17" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2103,13 +2109,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
+        <v>9999</v>
+      </c>
+      <c r="C18" s="2">
         <v>1220</v>
       </c>
-      <c r="C18" s="2">
-        <v>1230</v>
-      </c>
       <c r="D18" s="2">
-        <v>720</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2">
         <v>9999</v>
@@ -2118,7 +2124,7 @@
         <v>9999</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>54</v>
@@ -2126,8 +2132,8 @@
       <c r="I18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>103</v>
+      <c r="J18" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>33</v>
@@ -2143,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2152,13 +2158,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
+        <v>1220</v>
+      </c>
+      <c r="C19" s="2">
         <v>1230</v>
       </c>
-      <c r="C19" s="2">
-        <v>1300</v>
-      </c>
       <c r="D19" s="2">
-        <v>61</v>
+        <v>720</v>
       </c>
       <c r="E19" s="2">
         <v>9999</v>
@@ -2167,7 +2173,7 @@
         <v>9999</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>54</v>
@@ -2176,7 +2182,7 @@
         <v>54</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>33</v>
@@ -2187,14 +2193,12 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="N19" s="5"/>
       <c r="O19" t="b">
         <v>0</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2203,7 +2207,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>1290</v>
+        <v>1230</v>
       </c>
       <c r="C20" s="2">
         <v>1300</v>
@@ -2218,7 +2222,7 @@
         <v>9999</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>54</v>
@@ -2227,10 +2231,10 @@
         <v>54</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -2239,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -2254,13 +2258,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>9999</v>
+        <v>1290</v>
       </c>
       <c r="C21" s="2">
         <v>1300</v>
       </c>
       <c r="D21" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2">
         <v>9999</v>
@@ -2269,7 +2273,7 @@
         <v>9999</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>54</v>
@@ -2278,10 +2282,10 @@
         <v>54</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -2290,13 +2294,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9EAF4A-D5EB-4A2A-AF49-4139390D093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F92EBE-3761-4EEC-BD93-96B53AAF6578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -701,17 +701,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オレンジクレープを食べたい！</t>
-    <rPh sb="9" eb="10">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オレンジクレープ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>crepe_orange</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -754,17 +743,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラズベリーのシュークリームが食べたい！</t>
-    <rPh sb="14" eb="15">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラズベリーのシュークリーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カフェオーレシュークリームが食べたい！</t>
     <rPh sb="14" eb="15">
       <t>タ</t>
@@ -819,6 +797,34 @@
   </si>
   <si>
     <t>crepe_icecream_mint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンク色のシュークリームが食べたい！</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンク色のシュークリーム</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あまずっぱいクレープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あまずっぱいクレープを食べたい！</t>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1237,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2030,7 @@
         <v>9999</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>54</v>
@@ -2033,7 +2039,7 @@
         <v>54</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>33</v>
@@ -2049,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2124,7 +2130,7 @@
         <v>9999</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>54</v>
@@ -2133,7 +2139,7 @@
         <v>54</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>33</v>
@@ -2149,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2173,7 +2179,7 @@
         <v>9999</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>54</v>
@@ -2182,7 +2188,7 @@
         <v>54</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>33</v>
@@ -2198,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2364,16 +2370,16 @@
         <v>1320</v>
       </c>
       <c r="D23" s="2">
-        <v>70</v>
+        <v>834</v>
       </c>
       <c r="E23" s="2">
-        <v>9999</v>
+        <v>71</v>
       </c>
       <c r="F23" s="2">
         <v>9999</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>54</v>
@@ -2382,7 +2388,7 @@
         <v>54</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>34</v>
@@ -2398,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2413,7 +2419,7 @@
         <v>1330</v>
       </c>
       <c r="D24" s="2">
-        <v>70</v>
+        <v>838</v>
       </c>
       <c r="E24" s="2">
         <v>9999</v>
@@ -2422,7 +2428,7 @@
         <v>9999</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>54</v>
@@ -2431,7 +2437,7 @@
         <v>54</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>34</v>
@@ -2447,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,7 +2477,7 @@
         <v>9999</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>54</v>
@@ -2480,7 +2486,7 @@
         <v>54</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>34</v>
@@ -2520,7 +2526,7 @@
         <v>9999</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>54</v>
@@ -2529,7 +2535,7 @@
         <v>54</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>34</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F92EBE-3761-4EEC-BD93-96B53AAF6578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58BCA4-371B-456E-A4DF-1AEAD3BB8F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="1650" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1967,7 +1967,7 @@
         <v>1200</v>
       </c>
       <c r="C15" s="2">
-        <v>1210</v>
+        <v>1300</v>
       </c>
       <c r="D15" s="2">
         <v>60</v>
@@ -2318,7 +2318,7 @@
         <v>1300</v>
       </c>
       <c r="C22" s="2">
-        <v>1310</v>
+        <v>1400</v>
       </c>
       <c r="D22" s="2">
         <v>70</v>
@@ -2465,7 +2465,7 @@
         <v>1330</v>
       </c>
       <c r="C25" s="2">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="D25" s="2">
         <v>753</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58BCA4-371B-456E-A4DF-1AEAD3BB8F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8F139-1F7C-45B3-A5D7-B6C62F6E9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1650" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1275" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
   <si>
     <t>desc</t>
   </si>
@@ -824,6 +824,40 @@
     <t>あまずっぱいクレープを食べたい！</t>
     <rPh sb="11" eb="12">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茶色のクッキーを作ろう！！</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茶色のクッキー</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラモード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>好きなお菓子を作ろう！！</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1241,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1342,7 @@
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A28" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A30" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1766,34 +1800,34 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1100</v>
+        <v>1030</v>
       </c>
       <c r="C11" s="2">
-        <v>1110</v>
+        <v>1040</v>
       </c>
       <c r="D11" s="2">
-        <v>531</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>30</v>
+        <v>9999</v>
       </c>
       <c r="F11" s="2">
         <v>9999</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -1801,14 +1835,11 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="O11" t="b">
         <v>0</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1817,13 +1848,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1110</v>
+        <v>1040</v>
       </c>
       <c r="C12" s="2">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D12" s="2">
-        <v>31</v>
+        <v>515</v>
       </c>
       <c r="E12" s="2">
         <v>9999</v>
@@ -1832,7 +1863,7 @@
         <v>9999</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>54</v>
@@ -1841,10 +1872,10 @@
         <v>54</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -1852,12 +1883,11 @@
       <c r="M12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="5"/>
       <c r="O12" t="b">
         <v>0</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1866,34 +1896,34 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="C13" s="2">
-        <v>1200</v>
+        <v>1110</v>
       </c>
       <c r="D13" s="2">
-        <v>606</v>
+        <v>531</v>
       </c>
       <c r="E13" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>9999</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -1901,12 +1931,14 @@
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="O13" t="b">
         <v>0</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1915,34 +1947,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="C14" s="2">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="D14" s="2">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F14" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -1955,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,13 +1996,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
+        <v>1120</v>
+      </c>
+      <c r="C15" s="2">
         <v>1200</v>
       </c>
-      <c r="C15" s="2">
-        <v>1300</v>
-      </c>
       <c r="D15" s="2">
-        <v>60</v>
+        <v>606</v>
       </c>
       <c r="E15" s="2">
         <v>9999</v>
@@ -1979,19 +2011,19 @@
         <v>9999</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -1999,14 +2031,12 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="N15" s="5"/>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2015,22 +2045,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>1210</v>
+        <v>1130</v>
       </c>
       <c r="C16" s="2">
-        <v>1240</v>
+        <v>1120</v>
       </c>
       <c r="D16" s="2">
-        <v>63</v>
+        <v>534</v>
       </c>
       <c r="E16" s="2">
-        <v>9999</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2">
         <v>9999</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>54</v>
@@ -2039,10 +2069,10 @@
         <v>54</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -2055,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2064,13 +2094,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1240</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="2">
-        <v>1220</v>
+        <v>1300</v>
       </c>
       <c r="D17" s="2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2">
         <v>9999</v>
@@ -2079,19 +2109,19 @@
         <v>9999</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -2106,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2115,13 +2145,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>9999</v>
+        <v>1210</v>
       </c>
       <c r="C18" s="2">
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="D18" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2">
         <v>9999</v>
@@ -2130,7 +2160,7 @@
         <v>9999</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>54</v>
@@ -2138,8 +2168,8 @@
       <c r="I18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>103</v>
+      <c r="J18" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>33</v>
@@ -2155,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2164,13 +2194,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
+        <v>1240</v>
+      </c>
+      <c r="C19" s="2">
         <v>1220</v>
       </c>
-      <c r="C19" s="2">
-        <v>1230</v>
-      </c>
       <c r="D19" s="2">
-        <v>720</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2">
         <v>9999</v>
@@ -2179,7 +2209,7 @@
         <v>9999</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>54</v>
@@ -2188,10 +2218,10 @@
         <v>54</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -2199,12 +2229,14 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="O19" t="b">
         <v>0</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2213,13 +2245,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>1230</v>
+        <v>9999</v>
       </c>
       <c r="C20" s="2">
-        <v>1300</v>
+        <v>1220</v>
       </c>
       <c r="D20" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2">
         <v>9999</v>
@@ -2228,7 +2260,7 @@
         <v>9999</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>54</v>
@@ -2236,8 +2268,8 @@
       <c r="I20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>95</v>
+      <c r="J20" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>33</v>
@@ -2248,14 +2280,12 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="N20" s="5"/>
       <c r="O20" t="b">
         <v>0</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2264,13 +2294,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>1290</v>
+        <v>1220</v>
       </c>
       <c r="C21" s="2">
-        <v>1300</v>
+        <v>1230</v>
       </c>
       <c r="D21" s="2">
-        <v>61</v>
+        <v>720</v>
       </c>
       <c r="E21" s="2">
         <v>9999</v>
@@ -2279,7 +2309,7 @@
         <v>9999</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>54</v>
@@ -2288,10 +2318,10 @@
         <v>54</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -2299,14 +2329,12 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="N21" s="5"/>
       <c r="O21" t="b">
         <v>0</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,13 +2343,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
+        <v>1230</v>
+      </c>
+      <c r="C22" s="2">
         <v>1300</v>
       </c>
-      <c r="C22" s="2">
-        <v>1400</v>
-      </c>
       <c r="D22" s="2">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2">
         <v>9999</v>
@@ -2330,19 +2358,19 @@
         <v>9999</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -2350,12 +2378,14 @@
       <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="N22" s="5"/>
+      <c r="N22" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="O22" t="b">
         <v>0</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2364,22 +2394,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>1310</v>
+        <v>1290</v>
       </c>
       <c r="C23" s="2">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="D23" s="2">
-        <v>834</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2">
-        <v>71</v>
+        <v>9999</v>
       </c>
       <c r="F23" s="2">
         <v>9999</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>54</v>
@@ -2388,10 +2418,10 @@
         <v>54</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -2399,12 +2429,14 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="O23" t="b">
         <v>0</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2413,13 +2445,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>1320</v>
+        <v>1300</v>
       </c>
       <c r="C24" s="2">
-        <v>1330</v>
+        <v>1400</v>
       </c>
       <c r="D24" s="2">
-        <v>838</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2">
         <v>9999</v>
@@ -2428,16 +2460,16 @@
         <v>9999</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>34</v>
@@ -2453,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2462,22 +2494,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>1330</v>
+        <v>1310</v>
       </c>
       <c r="C25" s="2">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="D25" s="2">
-        <v>753</v>
+        <v>834</v>
       </c>
       <c r="E25" s="2">
-        <v>9999</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2">
         <v>9999</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>54</v>
@@ -2486,7 +2518,7 @@
         <v>54</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>34</v>
@@ -2502,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2511,13 +2543,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>1340</v>
+        <v>1320</v>
       </c>
       <c r="C26" s="2">
-        <v>1400</v>
+        <v>1330</v>
       </c>
       <c r="D26" s="2">
-        <v>70</v>
+        <v>838</v>
       </c>
       <c r="E26" s="2">
         <v>9999</v>
@@ -2526,7 +2558,7 @@
         <v>9999</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>54</v>
@@ -2535,7 +2567,7 @@
         <v>54</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>34</v>
@@ -2551,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2560,13 +2592,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
+        <v>1330</v>
+      </c>
+      <c r="C27" s="2">
         <v>1400</v>
       </c>
-      <c r="C27" s="2">
-        <v>1500</v>
-      </c>
       <c r="D27" s="2">
-        <v>80</v>
+        <v>753</v>
       </c>
       <c r="E27" s="2">
         <v>9999</v>
@@ -2575,19 +2607,19 @@
         <v>9999</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -2595,14 +2627,12 @@
       <c r="M27" s="2">
         <v>0</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="N27" s="5"/>
       <c r="O27" t="b">
         <v>0</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2611,13 +2641,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>1500</v>
+        <v>1340</v>
       </c>
       <c r="C28" s="2">
-        <v>9999</v>
+        <v>1400</v>
       </c>
       <c r="D28" s="2">
-        <v>9999</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2">
         <v>9999</v>
@@ -2626,19 +2656,19 @@
         <v>9999</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -2651,6 +2681,106 @@
         <v>0</v>
       </c>
       <c r="P28" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D29" s="2">
+        <v>80</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A8F139-1F7C-45B3-A5D7-B6C62F6E9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D629C128-A7E6-4FC0-8CCD-7042B3382C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1275" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="1185" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="121">
   <si>
     <t>desc</t>
   </si>
@@ -845,19 +845,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エクストラモード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>好きなお菓子を作ろう！！</t>
-    <rPh sb="0" eb="1">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツク</t>
+    <t>ハートを500まで上げよう！</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを1000まで上げよう！</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1275,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1339,7 @@
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A30" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A31" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -1800,13 +1797,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="C11" s="2">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>515</v>
       </c>
       <c r="E11" s="2">
         <v>9999</v>
@@ -1815,16 +1812,16 @@
         <v>9999</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>11</v>
@@ -1848,34 +1845,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="C12" s="2">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="D12" s="2">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="E12" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
         <v>9999</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -1883,11 +1880,14 @@
       <c r="M12" s="2">
         <v>0</v>
       </c>
+      <c r="N12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="O12" t="b">
         <v>0</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1896,31 +1896,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="C13" s="2">
-        <v>1110</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="2">
-        <v>531</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
-        <v>30</v>
+        <v>9999</v>
       </c>
       <c r="F13" s="2">
         <v>9999</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>32</v>
@@ -1931,14 +1931,12 @@
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="N13" s="5"/>
       <c r="O13" t="b">
         <v>0</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1947,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="C14" s="2">
         <v>1200</v>
       </c>
       <c r="D14" s="2">
-        <v>31</v>
+        <v>606</v>
       </c>
       <c r="E14" s="2">
         <v>9999</v>
@@ -1962,7 +1960,7 @@
         <v>9999</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>54</v>
@@ -1971,10 +1969,10 @@
         <v>54</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -1987,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,22 +1994,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
+        <v>1130</v>
+      </c>
+      <c r="C15" s="2">
         <v>1120</v>
       </c>
-      <c r="C15" s="2">
-        <v>1200</v>
-      </c>
       <c r="D15" s="2">
-        <v>606</v>
+        <v>534</v>
       </c>
       <c r="E15" s="2">
-        <v>9999</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2">
         <v>9999</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>54</v>
@@ -2020,7 +2018,7 @@
         <v>54</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>86</v>
@@ -2036,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2045,34 +2043,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>1130</v>
+        <v>1200</v>
       </c>
       <c r="C16" s="2">
-        <v>1120</v>
+        <v>1300</v>
       </c>
       <c r="D16" s="2">
-        <v>534</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2">
-        <v>32</v>
+        <v>9999</v>
       </c>
       <c r="F16" s="2">
         <v>9999</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -2080,12 +2078,14 @@
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="O16" t="b">
         <v>0</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2094,13 +2094,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="C17" s="2">
-        <v>1300</v>
+        <v>1240</v>
       </c>
       <c r="D17" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2">
         <v>9999</v>
@@ -2109,16 +2109,16 @@
         <v>9999</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>33</v>
@@ -2129,14 +2129,12 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="N17" s="5"/>
       <c r="O17" t="b">
         <v>0</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2145,13 +2143,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>1210</v>
+        <v>1240</v>
       </c>
       <c r="C18" s="2">
-        <v>1240</v>
+        <v>1220</v>
       </c>
       <c r="D18" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2">
         <v>9999</v>
@@ -2160,7 +2158,7 @@
         <v>9999</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>54</v>
@@ -2169,10 +2167,10 @@
         <v>54</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -2180,12 +2178,14 @@
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="O18" t="b">
         <v>0</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2194,13 +2194,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>1240</v>
+        <v>9999</v>
       </c>
       <c r="C19" s="2">
         <v>1220</v>
       </c>
       <c r="D19" s="2">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2">
         <v>9999</v>
@@ -2209,7 +2209,7 @@
         <v>9999</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>54</v>
@@ -2217,11 +2217,11 @@
       <c r="I19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>71</v>
+      <c r="J19" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -2229,14 +2229,12 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="N19" s="5"/>
       <c r="O19" t="b">
         <v>0</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2245,13 +2243,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>9999</v>
+        <v>1220</v>
       </c>
       <c r="C20" s="2">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="D20" s="2">
-        <v>64</v>
+        <v>720</v>
       </c>
       <c r="E20" s="2">
         <v>9999</v>
@@ -2260,7 +2258,7 @@
         <v>9999</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>54</v>
@@ -2268,8 +2266,8 @@
       <c r="I20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>103</v>
+      <c r="J20" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>33</v>
@@ -2285,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,13 +2292,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="C21" s="2">
-        <v>1230</v>
+        <v>1300</v>
       </c>
       <c r="D21" s="2">
-        <v>720</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2">
         <v>9999</v>
@@ -2309,7 +2307,7 @@
         <v>9999</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>54</v>
@@ -2318,7 +2316,7 @@
         <v>54</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>33</v>
@@ -2329,12 +2327,14 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="5"/>
+      <c r="N21" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="O21" t="b">
         <v>0</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2343,7 +2343,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="C22" s="2">
         <v>1300</v>
@@ -2358,7 +2358,7 @@
         <v>9999</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>54</v>
@@ -2367,10 +2367,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>1290</v>
+        <v>1300</v>
       </c>
       <c r="C23" s="2">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="D23" s="2">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2">
         <v>9999</v>
@@ -2409,19 +2409,19 @@
         <v>9999</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -2429,14 +2429,12 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="N23" s="5"/>
       <c r="O23" t="b">
         <v>0</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2445,31 +2443,31 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="C24" s="2">
-        <v>1400</v>
+        <v>1320</v>
       </c>
       <c r="D24" s="2">
-        <v>70</v>
+        <v>834</v>
       </c>
       <c r="E24" s="2">
-        <v>9999</v>
+        <v>71</v>
       </c>
       <c r="F24" s="2">
         <v>9999</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>34</v>
@@ -2485,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2494,22 +2492,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>1310</v>
+        <v>1320</v>
       </c>
       <c r="C25" s="2">
-        <v>1320</v>
+        <v>1330</v>
       </c>
       <c r="D25" s="2">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="E25" s="2">
-        <v>71</v>
+        <v>9999</v>
       </c>
       <c r="F25" s="2">
         <v>9999</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>54</v>
@@ -2518,7 +2516,7 @@
         <v>54</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>34</v>
@@ -2534,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2543,13 +2541,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>1320</v>
+        <v>1330</v>
       </c>
       <c r="C26" s="2">
-        <v>1330</v>
+        <v>1400</v>
       </c>
       <c r="D26" s="2">
-        <v>838</v>
+        <v>753</v>
       </c>
       <c r="E26" s="2">
         <v>9999</v>
@@ -2558,7 +2556,7 @@
         <v>9999</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>54</v>
@@ -2567,7 +2565,7 @@
         <v>54</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>34</v>
@@ -2583,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,13 +2590,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>1330</v>
+        <v>1340</v>
       </c>
       <c r="C27" s="2">
         <v>1400</v>
       </c>
       <c r="D27" s="2">
-        <v>753</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2">
         <v>9999</v>
@@ -2607,7 +2605,7 @@
         <v>9999</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>54</v>
@@ -2616,7 +2614,7 @@
         <v>54</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>34</v>
@@ -2641,13 +2639,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>1340</v>
+        <v>1400</v>
       </c>
       <c r="C28" s="2">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="D28" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2">
         <v>9999</v>
@@ -2656,19 +2654,19 @@
         <v>9999</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -2676,12 +2674,14 @@
       <c r="M28" s="2">
         <v>0</v>
       </c>
-      <c r="N28" s="5"/>
+      <c r="N28" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="O28" t="b">
         <v>0</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2690,13 +2690,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="C29" s="2">
-        <v>1500</v>
+        <v>9999</v>
       </c>
       <c r="D29" s="2">
-        <v>80</v>
+        <v>9999</v>
       </c>
       <c r="E29" s="2">
         <v>9999</v>
@@ -2705,19 +2705,19 @@
         <v>9999</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -2725,14 +2725,12 @@
       <c r="M29" s="2">
         <v>0</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="N29" s="5"/>
       <c r="O29" t="b">
         <v>0</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2741,13 +2739,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="C30" s="2">
-        <v>9999</v>
+        <v>10010</v>
       </c>
       <c r="D30" s="2">
-        <v>9999</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2">
         <v>9999</v>
@@ -2756,19 +2754,19 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>47</v>
+        <v>119</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -2776,12 +2774,59 @@
       <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="N30" s="5"/>
       <c r="O30" t="b">
         <v>0</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10010</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1040</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D629C128-A7E6-4FC0-8CCD-7042B3382C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC83E1-94FF-4F92-AF12-929F5247CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3345" yWindow="1185" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
   <si>
     <t>desc</t>
   </si>
@@ -845,14 +845,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを500まで上げよう！</t>
+    <t>ハートを300まで上げよう！</t>
     <rPh sb="9" eb="10">
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを1000まで上げよう！</t>
+    <t>ハートを700まで上げよう！</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを1500まで上げよう！</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
     </rPh>
@@ -1272,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1339,7 +1346,7 @@
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A31" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A32" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -2790,7 +2797,7 @@
         <v>10010</v>
       </c>
       <c r="C31" s="2">
-        <v>1040</v>
+        <v>10020</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -2826,6 +2833,54 @@
         <v>0</v>
       </c>
       <c r="P31" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10020</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1040</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F32" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="14" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC83E1-94FF-4F92-AF12-929F5247CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C899ADC6-C2BC-4D33-A62E-BED2F8427135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1185" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1995" windowWidth="23415" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="142">
   <si>
     <t>desc</t>
   </si>
@@ -859,9 +859,167 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを1500まで上げよう！</t>
+    <t>ハートを1200まで上げよう！</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ１ボス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ２ボス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茶色いクッキーが食べたい！</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤いくだもののラスクが食べたい！</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱石マフィンが食べたい！</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カミナリのようなすっぱいクレープが食べたい！</t>
+    <rPh sb="17" eb="18">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大富豪をうならせるいちごのお菓子を作ろう！</t>
+    <rPh sb="0" eb="3">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ３</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ３ボス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>心やすらぐティーを飲みたい！</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大人でムーディーなおかしが食べたい！</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夢みたいなパンケーキが食べたい！</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とろけるぷるんぷるんおかしが食べたい！</t>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミントちゃんとプリンセストータで勝負！</t>
+    <rPh sb="16" eb="18">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを2000まで上げよう！</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞エクストラは、3つのcompIDに反応しない</t>
+    <rPh sb="24" eb="26">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>230点を超える最強クレープを食べたい！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>230点以上のスーパークレープ</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1279,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1346,7 +1504,7 @@
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A32" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A44" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -2773,7 +2931,7 @@
         <v>119</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -2821,7 +2979,7 @@
         <v>120</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -2845,7 +3003,7 @@
         <v>10020</v>
       </c>
       <c r="C32" s="2">
-        <v>1040</v>
+        <v>10030</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -2869,7 +3027,7 @@
         <v>121</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -2881,6 +3039,582 @@
         <v>0</v>
       </c>
       <c r="P32" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10030</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10040</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F33" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>10040</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10100</v>
+      </c>
+      <c r="D34" s="2">
+        <v>61</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F34" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>10100</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10110</v>
+      </c>
+      <c r="D35" s="2">
+        <v>515</v>
+      </c>
+      <c r="E35" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F35" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>10110</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10120</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F36" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10120</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10130</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>10130</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10140</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F38" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10140</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10200</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10200</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10210</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F40" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>10210</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10220</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F41" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>10220</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10230</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>10230</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10240</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F43" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>10240</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F44" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="14" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C899ADC6-C2BC-4D33-A62E-BED2F8427135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC90DC-2ABB-47C1-A52D-19B879FE6E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1995" windowWidth="23415" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="155">
   <si>
     <t>desc</t>
   </si>
@@ -892,26 +892,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>赤いくだもののラスクが食べたい！</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>鉱石マフィンが食べたい！</t>
-    <rPh sb="0" eb="2">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カミナリのようなすっぱいクレープが食べたい！</t>
     <rPh sb="17" eb="18">
       <t>タ</t>
@@ -940,16 +920,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>心やすらぐティーを飲みたい！</t>
-    <rPh sb="0" eb="1">
-      <t>ココロ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大人でムーディーなおかしが食べたい！</t>
     <rPh sb="0" eb="2">
       <t>オトナ</t>
@@ -977,13 +947,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ミントちゃんとプリンセストータで勝負！</t>
-    <rPh sb="16" eb="18">
-      <t>ショウブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ハートを2000まで上げよう！</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
@@ -1020,6 +983,134 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茶色いクッキー</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱石マフィン</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カミナリのようなすっぱいクレープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大富豪をうならせるいちごのお菓子</t>
+    <rPh sb="0" eb="3">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大人でムーディーなおかし</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夢みたいなパンケーキ</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プリンセストータ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラ　ステージ１　クリア！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラ　ステージ２　クリア！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラ　ステージ３　クリア！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤いくだもののラスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒカリが3種類のお菓子を作れるようにしよう！</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とろけるぷるんぷるんのおかし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>酒場で名声を60まで上げよう！</t>
+    <rPh sb="0" eb="2">
+      <t>サカバ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>心がリラックスするお茶</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お茶会用に3種類のお菓子セットを作ろう！</t>
+    <rPh sb="1" eb="3">
+      <t>チャカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミントとプリンセストータで勝負！</t>
+    <rPh sb="13" eb="15">
+      <t>ショウブ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1439,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2922,16 +3013,16 @@
         <v>119</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>119</v>
+        <v>145</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -2970,13 +3061,13 @@
         <v>120</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>120</v>
+        <v>54</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>122</v>
@@ -3018,13 +3109,13 @@
         <v>121</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>121</v>
+        <v>54</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>122</v>
@@ -3063,16 +3154,16 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>138</v>
+        <v>54</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>122</v>
@@ -3111,16 +3202,16 @@
         <v>9999</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>123</v>
@@ -3162,13 +3253,13 @@
         <v>126</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>124</v>
@@ -3207,16 +3298,16 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>124</v>
@@ -3255,16 +3346,16 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>124</v>
@@ -3303,16 +3394,16 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>124</v>
@@ -3351,16 +3442,16 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>125</v>
@@ -3399,19 +3490,19 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -3447,19 +3538,19 @@
         <v>9999</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -3495,19 +3586,19 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -3543,19 +3634,19 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -3591,19 +3682,19 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>137</v>
+        <v>54</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC90DC-2ABB-47C1-A52D-19B879FE6E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08610CC2-3569-4324-B732-ED9DFDB56492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1995" windowWidth="23415" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,13 +852,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを700まで上げよう！</t>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ハートを1200まで上げよう！</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
@@ -947,13 +940,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを2000まで上げよう！</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜エクストラ＞エクストラは、3つのcompIDに反応しない</t>
     <rPh sb="24" eb="26">
       <t>ハンノウ</t>
@@ -1066,19 +1052,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>酒場で名声を60まで上げよう！</t>
-    <rPh sb="0" eb="2">
-      <t>サカバ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>メイセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>心がリラックスするお茶</t>
     <rPh sb="0" eb="1">
       <t>ココロ</t>
@@ -1111,6 +1084,27 @@
     <t>ミントとプリンセストータで勝負！</t>
     <rPh sb="13" eb="15">
       <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを150まで上げよう！</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを600まで上げよう！</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを2400まで上げよう！</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1531,7 +1525,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3010,19 +3004,19 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -3058,7 +3052,7 @@
         <v>9999</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>54</v>
@@ -3070,7 +3064,7 @@
         <v>37</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -3106,7 +3100,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3118,7 +3112,7 @@
         <v>37</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -3154,7 +3148,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3166,7 +3160,7 @@
         <v>37</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -3202,7 +3196,7 @@
         <v>9999</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>54</v>
@@ -3211,10 +3205,10 @@
         <v>54</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -3250,19 +3244,19 @@
         <v>9999</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -3298,7 +3292,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3307,10 +3301,10 @@
         <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -3346,7 +3340,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3355,10 +3349,10 @@
         <v>54</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -3394,7 +3388,7 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>54</v>
@@ -3403,10 +3397,10 @@
         <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -3442,7 +3436,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3451,10 +3445,10 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -3490,19 +3484,19 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -3538,7 +3532,7 @@
         <v>9999</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>54</v>
@@ -3547,10 +3541,10 @@
         <v>54</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -3586,7 +3580,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3595,10 +3589,10 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -3634,7 +3628,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3643,10 +3637,10 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -3682,7 +3676,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3691,10 +3685,10 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08610CC2-3569-4324-B732-ED9DFDB56492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FBE30B-6B5D-4192-B2F5-6E24774A1C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1995" windowWidth="23415" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -852,13 +852,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを1200まで上げよう！</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜エクストラ＞ステージ１</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1102,7 +1095,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを2400まで上げよう！</t>
+    <t>ハートを900まで上げよう！</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを2000まで上げよう！</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
     </rPh>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3004,19 +3004,19 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>37</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3112,7 +3112,7 @@
         <v>37</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -3148,7 +3148,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3160,7 +3160,7 @@
         <v>37</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         <v>9999</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="K34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -3244,19 +3244,19 @@
         <v>9999</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -3292,7 +3292,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3301,10 +3301,10 @@
         <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3349,10 +3349,10 @@
         <v>54</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>54</v>
@@ -3397,10 +3397,10 @@
         <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3445,10 +3445,10 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -3487,16 +3487,16 @@
         <v>154</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>9999</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>54</v>
@@ -3541,10 +3541,10 @@
         <v>54</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3589,10 +3589,10 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3637,10 +3637,10 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3685,10 +3685,10 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FBE30B-6B5D-4192-B2F5-6E24774A1C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF693B-3864-4838-BEBE-2001055F218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23415" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="2280" windowWidth="23415" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
   <si>
     <t>desc</t>
   </si>
@@ -885,19 +885,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>大富豪をうならせるいちごのお菓子を作ろう！</t>
-    <rPh sb="0" eb="3">
-      <t>ダイフゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜エクストラ＞ステージ３</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -916,16 +903,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>夢みたいなパンケーキが食べたい！</t>
-    <rPh sb="0" eb="1">
-      <t>ユメ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>とろけるぷるんぷるんおかしが食べたい！</t>
     <rPh sb="14" eb="15">
       <t>タ</t>
@@ -984,16 +961,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>大富豪をうならせるいちごのお菓子</t>
-    <rPh sb="0" eb="3">
-      <t>ダイフゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大人でムーディーなおかし</t>
     <rPh sb="0" eb="2">
       <t>オトナ</t>
@@ -1095,14 +1062,43 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを900まで上げよう！</t>
-    <rPh sb="9" eb="10">
+    <t>ハートを2000まで上げよう！</t>
+    <rPh sb="10" eb="11">
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを2000まで上げよう！</t>
+    <t>お店を守る！　いちごのお菓子を準備しよう！</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒカリが10種類のお菓子を作れるようにしよう！</t>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを1000まで上げよう！</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
     </rPh>
@@ -1525,7 +1521,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3004,19 +3000,19 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -3100,7 +3096,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3196,7 +3192,7 @@
         <v>9999</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>54</v>
@@ -3205,7 +3201,7 @@
         <v>54</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>121</v>
@@ -3247,13 +3243,13 @@
         <v>124</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>122</v>
@@ -3292,7 +3288,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3301,7 +3297,7 @@
         <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>122</v>
@@ -3340,7 +3336,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3349,7 +3345,7 @@
         <v>54</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>122</v>
@@ -3397,7 +3393,7 @@
         <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>122</v>
@@ -3436,7 +3432,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3445,7 +3441,7 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>123</v>
@@ -3484,19 +3480,19 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -3532,7 +3528,7 @@
         <v>9999</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>54</v>
@@ -3541,10 +3537,10 @@
         <v>54</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -3580,7 +3576,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3589,10 +3585,10 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -3628,7 +3624,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3637,10 +3633,10 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -3676,7 +3672,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3685,10 +3681,10 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF693B-3864-4838-BEBE-2001055F218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792E14C-4FD9-4BBA-BE23-6BEE2C5E35A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="2280" windowWidth="23415" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="154">
   <si>
     <t>desc</t>
   </si>
@@ -903,13 +903,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>とろけるぷるんぷるんおかしが食べたい！</t>
-    <rPh sb="14" eb="15">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜エクストラ＞エクストラは、3つのcompIDに反応しない</t>
     <rPh sb="24" eb="26">
       <t>ハンノウ</t>
@@ -968,13 +961,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>夢みたいなパンケーキ</t>
-    <rPh sb="0" eb="1">
-      <t>ユメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プリンセストータ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1008,10 +994,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>とろけるぷるんぷるんのおかし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>心がリラックスするお茶</t>
     <rPh sb="0" eb="1">
       <t>ココロ</t>
@@ -1041,13 +1023,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ミントとプリンセストータで勝負！</t>
-    <rPh sb="13" eb="15">
-      <t>ショウブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ハートを150まで上げよう！</t>
     <rPh sb="9" eb="10">
       <t>ア</t>
@@ -1069,22 +1044,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お店を守る！　いちごのお菓子を準備しよう！</t>
-    <rPh sb="1" eb="2">
-      <t>ミセ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マモ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ヒカリが10種類のお菓子を作れるようにしよう！</t>
     <rPh sb="6" eb="8">
       <t>シュルイ</t>
@@ -1101,6 +1060,56 @@
     <t>ハートを1000まで上げよう！</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>300点を超えるいちごのクレープを準備しよう！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200点を超える夢みたいなパンケーキ</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ユメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふわふわパンケーキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>300点を超えるプリンセストータを作ろう！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>来たぞ！コンテスト！！　～２～</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1518,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1585,7 +1594,7 @@
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A44" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A45" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -3000,19 +3009,19 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -3096,7 +3105,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3144,7 +3153,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3192,16 +3201,16 @@
         <v>9999</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>121</v>
@@ -3243,13 +3252,13 @@
         <v>124</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>122</v>
@@ -3288,7 +3297,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3297,7 +3306,7 @@
         <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>122</v>
@@ -3336,7 +3345,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3345,7 +3354,7 @@
         <v>54</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>122</v>
@@ -3375,7 +3384,7 @@
         <v>10140</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E38" s="2">
         <v>9999</v>
@@ -3393,7 +3402,7 @@
         <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>122</v>
@@ -3432,7 +3441,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3441,7 +3450,7 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>123</v>
@@ -3480,16 +3489,16 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>126</v>
@@ -3537,7 +3546,7 @@
         <v>54</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>126</v>
@@ -3576,7 +3585,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3585,7 +3594,7 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>126</v>
@@ -3615,7 +3624,7 @@
         <v>10240</v>
       </c>
       <c r="D43" s="2">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2">
         <v>9999</v>
@@ -3624,7 +3633,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3633,7 +3642,7 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>126</v>
@@ -3660,7 +3669,7 @@
         <v>10240</v>
       </c>
       <c r="C44" s="2">
-        <v>1500</v>
+        <v>10500</v>
       </c>
       <c r="D44" s="2">
         <v>3</v>
@@ -3672,7 +3681,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3681,7 +3690,7 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>127</v>
@@ -3697,6 +3706,55 @@
       </c>
       <c r="P44" s="14" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>10500</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9999</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E45" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F45" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792E14C-4FD9-4BBA-BE23-6BEE2C5E35A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D57F83-9E5E-40BF-B2E8-ADA997FFCFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1004,25 +1004,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お茶会用に3種類のお菓子セットを作ろう！</t>
-    <rPh sb="1" eb="3">
-      <t>チャカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ハートを150まで上げよう！</t>
     <rPh sb="9" eb="10">
       <t>ア</t>
@@ -1110,6 +1091,22 @@
     <t>来たぞ！コンテスト！！　～２～</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お茶会用の「お茶」を準備しよう！</t>
+    <rPh sb="1" eb="3">
+      <t>チャカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュンビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1530,7 +1527,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3009,7 +3006,7 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>137</v>
@@ -3105,7 +3102,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3153,7 +3150,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3297,7 +3294,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3441,7 +3438,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3450,7 +3447,7 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>123</v>
@@ -3489,7 +3486,7 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>139</v>
@@ -3585,7 +3582,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3594,7 +3591,7 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>126</v>
@@ -3633,7 +3630,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3642,7 +3639,7 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>126</v>
@@ -3681,7 +3678,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3729,10 +3726,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D57F83-9E5E-40BF-B2E8-ADA997FFCFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF5383-F2D9-42A7-A3C0-9B6758C6645E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -878,13 +878,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カミナリのようなすっぱいクレープが食べたい！</t>
-    <rPh sb="17" eb="18">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>＜エクストラ＞ステージ３</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -950,10 +943,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カミナリのようなすっぱいクレープ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大人でムーディーなおかし</t>
     <rPh sb="0" eb="2">
       <t>オトナ</t>
@@ -1038,13 +1027,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを1000まで上げよう！</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>300点を超えるいちごのクレープを準備しよう！</t>
     <rPh sb="3" eb="4">
       <t>テン</t>
@@ -1108,6 +1090,24 @@
     <rPh sb="10" eb="12">
       <t>ジュンビ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを900まで上げよう！</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>めちゃすっぱいクレープが食べたい！</t>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>めちゃすっぱいクレープ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3006,19 +3006,19 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3150,7 +3150,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3198,16 +3198,16 @@
         <v>9999</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>121</v>
@@ -3249,13 +3249,13 @@
         <v>124</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>122</v>
@@ -3294,7 +3294,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3303,7 +3303,7 @@
         <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>122</v>
@@ -3342,7 +3342,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3351,7 +3351,7 @@
         <v>54</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>122</v>
@@ -3390,7 +3390,7 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>54</v>
@@ -3399,7 +3399,7 @@
         <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>122</v>
@@ -3438,7 +3438,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3447,7 +3447,7 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>123</v>
@@ -3486,19 +3486,19 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>9999</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>54</v>
@@ -3543,10 +3543,10 @@
         <v>54</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3591,10 +3591,10 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3639,10 +3639,10 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3687,10 +3687,10 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF5383-F2D9-42A7-A3C0-9B6758C6645E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E758E-4C43-4176-AA2B-C5A1028CEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="2520" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -954,18 +954,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エクストラ　ステージ１　クリア！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エクストラ　ステージ２　クリア！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エクストラ　ステージ３　クリア！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>赤いくだもののラスク</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1108,6 +1096,18 @@
   </si>
   <si>
     <t>めちゃすっぱいクレープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラ　ステージ１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラ　ステージ２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラ　ステージ３</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3006,13 +3006,13 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
@@ -3102,7 +3102,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3150,7 +3150,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3249,10 +3249,10 @@
         <v>124</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>131</v>
@@ -3294,7 +3294,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3303,7 +3303,7 @@
         <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>122</v>
@@ -3342,7 +3342,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3390,7 +3390,7 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>54</v>
@@ -3399,7 +3399,7 @@
         <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>122</v>
@@ -3438,7 +3438,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3447,7 +3447,7 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>123</v>
@@ -3486,16 +3486,16 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>125</v>
@@ -3582,16 +3582,16 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>125</v>
@@ -3630,7 +3630,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3639,7 +3639,7 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>125</v>
@@ -3678,7 +3678,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3726,10 +3726,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E758E-4C43-4176-AA2B-C5A1028CEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A04B8-FE75-4FA6-A346-AB79FCBC2394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2520" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="2385" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1058,13 +1058,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>来たぞ！コンテスト！！　～２～</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>お茶会用の「お茶」を準備しよう！</t>
     <rPh sb="1" eb="3">
       <t>チャカイ</t>
@@ -1108,6 +1101,13 @@
   </si>
   <si>
     <t>エクストラ　ステージ３</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>来たぞ！コンテスト！！！！</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3009,10 +3009,10 @@
         <v>138</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
@@ -3150,7 +3150,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3249,10 +3249,10 @@
         <v>124</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>131</v>
@@ -3294,7 +3294,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3390,16 +3390,16 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>122</v>
@@ -3489,10 +3489,10 @@
         <v>140</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>137</v>
@@ -3726,10 +3726,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A04B8-FE75-4FA6-A346-AB79FCBC2394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4075209B-1674-49E3-B6C1-FDFF25707D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2385" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -950,10 +950,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プリンセストータ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>赤いくだもののラスク</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1028,33 +1024,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>200点を超える夢みたいなパンケーキ</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ユメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ふわふわパンケーキ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>300点を超えるプリンセストータを作ろう！</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1107,6 +1077,42 @@
     <t>来たぞ！コンテスト！！！！</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200点を超えるキラキラパンケーキ</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目指せ300点超え！プリンセストータを作ろう！</t>
+    <rPh sb="0" eb="2">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>300点超えのプリンセストータ</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1526,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3006,13 +3012,13 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
@@ -3102,7 +3108,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3150,7 +3156,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3249,10 +3255,10 @@
         <v>124</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>131</v>
@@ -3285,7 +3291,7 @@
         <v>10120</v>
       </c>
       <c r="D36" s="2">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="E36" s="2">
         <v>9999</v>
@@ -3294,7 +3300,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3303,7 +3309,7 @@
         <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>122</v>
@@ -3333,7 +3339,7 @@
         <v>10130</v>
       </c>
       <c r="D37" s="2">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="E37" s="2">
         <v>9999</v>
@@ -3342,7 +3348,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3390,7 +3396,7 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>54</v>
@@ -3399,7 +3405,7 @@
         <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>122</v>
@@ -3429,7 +3435,7 @@
         <v>10200</v>
       </c>
       <c r="D39" s="2">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="E39" s="2">
         <v>9999</v>
@@ -3438,7 +3444,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3447,7 +3453,7 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>123</v>
@@ -3477,7 +3483,7 @@
         <v>10210</v>
       </c>
       <c r="D40" s="2">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="E40" s="2">
         <v>9999</v>
@@ -3486,16 +3492,16 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>125</v>
@@ -3525,7 +3531,7 @@
         <v>10220</v>
       </c>
       <c r="D41" s="2">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="E41" s="2">
         <v>9999</v>
@@ -3573,7 +3579,7 @@
         <v>10230</v>
       </c>
       <c r="D42" s="2">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="E42" s="2">
         <v>9999</v>
@@ -3582,7 +3588,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3591,7 +3597,7 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>125</v>
@@ -3630,7 +3636,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3639,7 +3645,7 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>125</v>
@@ -3669,7 +3675,7 @@
         <v>10500</v>
       </c>
       <c r="D44" s="2">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="E44" s="2">
         <v>9999</v>
@@ -3678,7 +3684,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3687,7 +3693,7 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>126</v>
@@ -3726,10 +3732,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4075209B-1674-49E3-B6C1-FDFF25707D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0120A59-91B1-4D05-9BB9-3FBDAF918291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -845,6 +845,250 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>＜エクストラ＞ステージ１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ１ボス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ２ボス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茶色いクッキーが食べたい！</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ３</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞ステージ３ボス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大人でムーディーなおかしが食べたい！</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜エクストラ＞エクストラは、3つのcompIDに反応しない</t>
+    <rPh sb="24" eb="26">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>230点を超える最強クレープを食べたい！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>230点以上のスーパークレープ</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茶色いクッキー</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱石マフィン</t>
+    <rPh sb="0" eb="2">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大人でムーディーなおかし</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤いくだもののラスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒカリが3種類のお菓子を作れるようにしよう！</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>心がリラックスするお茶</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒカリが10種類のお菓子を作れるようにしよう！</t>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>300点を超えるいちごのクレープを準備しよう！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふわふわパンケーキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お茶会用の「お茶」を準備しよう！</t>
+    <rPh sb="1" eb="3">
+      <t>チャカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>めちゃすっぱいクレープが食べたい！</t>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>めちゃすっぱいクレープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラ　ステージ１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラ　ステージ２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エクストラ　ステージ３</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>来たぞ！コンテスト！！！！</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200点を超えるキラキラパンケーキ</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目指せ300点超え！プリンセストータを作ろう！</t>
+    <rPh sb="0" eb="2">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>300点超えのプリンセストータ</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを100まで上げよう！</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ハートを300まで上げよう！</t>
     <rPh sb="9" eb="10">
       <t>ア</t>
@@ -852,267 +1096,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>＜エクストラ＞ステージ１</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＜エクストラ＞ステージ１ボス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＜エクストラ＞ステージ２</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＜エクストラ＞ステージ２ボス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>茶色いクッキーが食べたい！</t>
-    <rPh sb="0" eb="2">
-      <t>チャイロ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＜エクストラ＞ステージ３</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＜エクストラ＞ステージ３ボス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大人でムーディーなおかしが食べたい！</t>
-    <rPh sb="0" eb="2">
-      <t>オトナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>＜エクストラ＞エクストラは、3つのcompIDに反応しない</t>
-    <rPh sb="24" eb="26">
-      <t>ハンノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>230点を超える最強クレープを食べたい！</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイキョウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>230点以上のスーパークレープ</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>茶色いクッキー</t>
-    <rPh sb="0" eb="2">
-      <t>チャイロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>鉱石マフィン</t>
-    <rPh sb="0" eb="2">
-      <t>コウセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大人でムーディーなおかし</t>
-    <rPh sb="0" eb="2">
-      <t>オトナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>赤いくだもののラスク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ヒカリが3種類のお菓子を作れるようにしよう！</t>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>心がリラックスするお茶</t>
-    <rPh sb="0" eb="1">
-      <t>ココロ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>チャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハートを150まで上げよう！</t>
+    <t>ハートを650まで上げよう！</t>
     <rPh sb="9" eb="10">
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを600まで上げよう！</t>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハートを2000まで上げよう！</t>
+    <t>ハートを1000まで上げよう！</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ヒカリが10種類のお菓子を作れるようにしよう！</t>
-    <rPh sb="6" eb="8">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>300点を超えるいちごのクレープを準備しよう！</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ふわふわパンケーキ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お茶会用の「お茶」を準備しよう！</t>
-    <rPh sb="1" eb="3">
-      <t>チャカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハートを900まで上げよう！</t>
-    <rPh sb="9" eb="10">
+    <t>ハートを3000まで上げよう！</t>
+    <rPh sb="10" eb="11">
       <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>めちゃすっぱいクレープが食べたい！</t>
-    <rPh sb="12" eb="13">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>めちゃすっぱいクレープ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エクストラ　ステージ１</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エクストラ　ステージ２</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エクストラ　ステージ３</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>来たぞ！コンテスト！！！！</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>200点を超えるキラキラパンケーキ</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>目指せ300点超え！プリンセストータを作ろう！</t>
-    <rPh sb="0" eb="2">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>300点超えのプリンセストータ</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3012,19 +3012,19 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>9999</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>54</v>
@@ -3072,7 +3072,7 @@
         <v>37</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3120,7 +3120,7 @@
         <v>37</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3168,7 +3168,7 @@
         <v>37</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -3204,19 +3204,19 @@
         <v>9999</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="K34" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         <v>9999</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3309,10 +3309,10 @@
         <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3357,10 +3357,10 @@
         <v>54</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>54</v>
@@ -3405,10 +3405,10 @@
         <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3453,10 +3453,10 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -3492,19 +3492,19 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>9999</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>54</v>
@@ -3549,10 +3549,10 @@
         <v>54</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3597,10 +3597,10 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3645,10 +3645,10 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3693,10 +3693,10 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
@@ -3732,10 +3732,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0120A59-91B1-4D05-9BB9-3FBDAF918291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A377F9-619A-445B-AD80-6DBB707DC5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1000,22 +1000,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>お茶会用の「お茶」を準備しよう！</t>
-    <rPh sb="1" eb="3">
-      <t>チャカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>めちゃすっぱいクレープが食べたい！</t>
     <rPh sb="12" eb="13">
       <t>タ</t>
@@ -1113,6 +1097,16 @@
     <t>ハートを3000まで上げよう！</t>
     <rPh sb="10" eb="11">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プリンさんに「お茶」を持っていこう！</t>
+    <rPh sb="8" eb="9">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1533,7 +1527,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3012,13 +3006,13 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
@@ -3060,7 +3054,7 @@
         <v>9999</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>54</v>
@@ -3108,7 +3102,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3156,7 +3150,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3255,10 +3249,10 @@
         <v>123</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>130</v>
@@ -3300,7 +3294,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3396,16 +3390,16 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>121</v>
@@ -3492,13 +3486,13 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>135</v>
@@ -3636,7 +3630,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3645,7 +3639,7 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>124</v>
@@ -3684,16 +3678,16 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>125</v>
@@ -3732,10 +3726,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A377F9-619A-445B-AD80-6DBB707DC5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88645FFC-C41F-4965-81C9-7B6BFC9FB79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88645FFC-C41F-4965-81C9-7B6BFC9FB79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C3FBB7-DB89-4D52-BDDA-F8989F1A183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -947,19 +947,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ヒカリが3種類のお菓子を作れるようにしよう！</t>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>心がリラックスするお茶</t>
     <rPh sb="0" eb="1">
       <t>ココロ</t>
@@ -1107,6 +1094,13 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを2000まで上げよう！</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1527,7 +1521,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3006,13 +3000,13 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
@@ -3054,7 +3048,7 @@
         <v>9999</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>54</v>
@@ -3102,7 +3096,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3150,7 +3144,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3249,10 +3243,10 @@
         <v>123</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>130</v>
@@ -3294,7 +3288,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3342,7 +3336,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3390,16 +3384,16 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>121</v>
@@ -3438,7 +3432,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3447,7 +3441,7 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>122</v>
@@ -3486,16 +3480,16 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>124</v>
@@ -3582,7 +3576,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3591,7 +3585,7 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>124</v>
@@ -3630,7 +3624,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3639,7 +3633,7 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>124</v>
@@ -3678,16 +3672,16 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>125</v>
@@ -3726,10 +3720,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C3FBB7-DB89-4D52-BDDA-F8989F1A183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F4E7D-09CD-4200-99FF-9E86D8224A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="2250" windowWidth="21660" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -957,19 +957,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ヒカリが10種類のお菓子を作れるようにしよう！</t>
-    <rPh sb="6" eb="8">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>300点を超えるいちごのクレープを準備しよう！</t>
     <rPh sb="3" eb="4">
       <t>テン</t>
@@ -1027,32 +1014,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>目指せ300点超え！プリンセストータを作ろう！</t>
-    <rPh sb="0" eb="2">
-      <t>メザ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>300点超えのプリンセストータ</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ハートを100まで上げよう！</t>
     <rPh sb="9" eb="10">
       <t>ア</t>
@@ -1102,6 +1063,24 @@
     <rPh sb="10" eb="11">
       <t>ア</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを4000まで上げよう！</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハートを5000まで上げよう！</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プリンセストータ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1520,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3000,13 +2979,13 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>37</v>
@@ -3048,7 +3027,7 @@
         <v>9999</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>54</v>
@@ -3096,7 +3075,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3144,7 +3123,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3243,10 +3222,10 @@
         <v>123</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>130</v>
@@ -3288,7 +3267,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3336,7 +3315,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3384,16 +3363,16 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>121</v>
@@ -3432,7 +3411,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3441,7 +3420,7 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>122</v>
@@ -3480,13 +3459,13 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>134</v>
@@ -3576,7 +3555,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3585,7 +3564,7 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>124</v>
@@ -3624,7 +3603,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3633,7 +3612,7 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>124</v>
@@ -3672,7 +3651,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3681,7 +3660,7 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>125</v>
@@ -3720,10 +3699,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354F4E7D-09CD-4200-99FF-9E86D8224A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7C37CB-AB6A-4818-A835-78F262084FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="2250" windowWidth="21660" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -997,13 +997,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>来たぞ！コンテスト！！！！</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>200点を超えるキラキラパンケーキ</t>
     <rPh sb="3" eb="4">
       <t>テン</t>
@@ -1066,9 +1059,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを4000まで上げよう！</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
+    <t>プリンセストータ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>300点を超えるプリンセストータが食べたい！！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>来たぞ！コンテスト！！！！＜エクストラ＞</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1077,10 +1087,6 @@
     <rPh sb="10" eb="11">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プリンセストータ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1499,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2979,7 +2985,7 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>139</v>
@@ -3027,7 +3033,7 @@
         <v>9999</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>54</v>
@@ -3075,7 +3081,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3123,7 +3129,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3267,7 +3273,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3315,7 +3321,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3459,7 +3465,7 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>141</v>
@@ -3555,7 +3561,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3603,7 +3609,7 @@
         <v>9999</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>54</v>
@@ -3612,7 +3618,7 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>124</v>
@@ -3651,7 +3657,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3660,7 +3666,7 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>125</v>
@@ -3699,10 +3705,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7C37CB-AB6A-4818-A835-78F262084FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6FEDE-A8AC-460F-BAD7-272A61FFD470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -1170,25 +1170,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_GirlLikeSetCompoDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E6FEDE-A8AC-460F-BAD7-272A61FFD470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1C56B1-6708-4110-8E26-F9070198F4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2070" windowWidth="23565" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Stage1_Set" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="157">
   <si>
     <t>desc</t>
   </si>
@@ -896,32 +896,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>230点を超える最強クレープを食べたい！</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイキョウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>230点以上のスーパークレープ</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>茶色いクッキー</t>
     <rPh sb="0" eb="2">
       <t>チャイロ</t>
@@ -929,13 +903,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>鉱石マフィン</t>
-    <rPh sb="0" eb="2">
-      <t>コウセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大人でムーディーなおかし</t>
     <rPh sb="0" eb="2">
       <t>オトナ</t>
@@ -943,10 +910,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>赤いくだもののラスク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>心がリラックスするお茶</t>
     <rPh sb="0" eb="1">
       <t>ココロ</t>
@@ -957,19 +920,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>300点を超えるいちごのクレープを準備しよう！</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ふわふわパンケーキ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -985,63 +935,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エクストラ　ステージ１</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エクストラ　ステージ２</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エクストラ　ステージ３</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>200点を超えるキラキラパンケーキ</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハートを100まで上げよう！</t>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハートを300まで上げよう！</t>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハートを650まで上げよう！</t>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハートを1000まで上げよう！</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハートを3000まで上げよう！</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プリンさんに「お茶」を持っていこう！</t>
     <rPh sb="8" eb="9">
       <t>チャ</t>
@@ -1052,18 +945,61 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを2000まで上げよう！</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プリンセストータ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>300点を超えるプリンセストータが食べたい！！</t>
+    <t>ピンクのクッキーが食べたいな！</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンクのクッキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むらさきのお茶がのみたい！</t>
+    <rPh sb="6" eb="7">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒカリに1つのお菓子を覚えさせよう！</t>
+    <rPh sb="8" eb="10">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>むらさきのお茶</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベリークレープが食べたいな！</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夢みたいなキラキラパンケーキ</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夢みたいなキラキラパンケーキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150点を超えるいちごのクレープを作ろう！</t>
     <rPh sb="3" eb="4">
       <t>テン</t>
     </rPh>
@@ -1071,21 +1007,103 @@
       <t>コ</t>
     </rPh>
     <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150点を超えるいちごのクレープ</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱石マフィン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ふしぎな鉱石マフィンが食べたい！！</t>
+    <rPh sb="11" eb="12">
       <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>来たぞ！コンテスト！！！！＜エクストラ＞</t>
+    <t>ふしぎなお菓子でいっぱい♪</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナラテ・メモリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あたらしいおともだち！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>来たぞ！コンテストッ！！！！</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハートを5000まで上げよう！</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
+    <t>150点を超えるさっくり最強クッキーを食べたい！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150点超えの最強クッキー</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごクレープとお茶会！</t>
+    <rPh sb="9" eb="11">
+      <t>チャカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキラ鉱石マフィン！</t>
+    <rPh sb="4" eb="6">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>150点越えさっくり最強クッキー！</t>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイキョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1505,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7432E41C-B1D3-40BA-B7D7-0F4C8CCF282D}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2985,16 +3003,16 @@
         <v>9999</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>37</v>
+        <v>149</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>127</v>
@@ -3021,7 +3039,7 @@
         <v>10010</v>
       </c>
       <c r="C31" s="2">
-        <v>10020</v>
+        <v>10030</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -3033,7 +3051,7 @@
         <v>9999</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>54</v>
@@ -3081,7 +3099,7 @@
         <v>9999</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>54</v>
@@ -3089,8 +3107,8 @@
       <c r="I32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>37</v>
+      <c r="J32" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>119</v>
@@ -3129,7 +3147,7 @@
         <v>9999</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>54</v>
@@ -3138,7 +3156,7 @@
         <v>54</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>119</v>
@@ -3168,7 +3186,7 @@
         <v>10100</v>
       </c>
       <c r="D34" s="2">
-        <v>61</v>
+        <v>10000</v>
       </c>
       <c r="E34" s="2">
         <v>9999</v>
@@ -3177,7 +3195,7 @@
         <v>9999</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>54</v>
@@ -3185,8 +3203,8 @@
       <c r="I34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>129</v>
+      <c r="J34" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>120</v>
@@ -3225,16 +3243,16 @@
         <v>9999</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="H35" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>121</v>
@@ -3273,7 +3291,7 @@
         <v>9999</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>54</v>
@@ -3282,7 +3300,7 @@
         <v>54</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>121</v>
@@ -3321,7 +3339,7 @@
         <v>9999</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>54</v>
@@ -3330,7 +3348,7 @@
         <v>54</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>121</v>
@@ -3369,7 +3387,7 @@
         <v>9999</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>54</v>
@@ -3378,7 +3396,7 @@
         <v>54</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>121</v>
@@ -3417,7 +3435,7 @@
         <v>9999</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>54</v>
@@ -3426,7 +3444,7 @@
         <v>54</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>122</v>
@@ -3453,7 +3471,7 @@
         <v>10200</v>
       </c>
       <c r="C40" s="2">
-        <v>10210</v>
+        <v>10230</v>
       </c>
       <c r="D40" s="2">
         <v>10000</v>
@@ -3465,16 +3483,16 @@
         <v>9999</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>124</v>
@@ -3501,7 +3519,7 @@
         <v>10210</v>
       </c>
       <c r="C41" s="2">
-        <v>10220</v>
+        <v>10230</v>
       </c>
       <c r="D41" s="2">
         <v>10000</v>
@@ -3513,7 +3531,7 @@
         <v>9999</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>54</v>
@@ -3522,7 +3540,7 @@
         <v>54</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>124</v>
@@ -3561,7 +3579,7 @@
         <v>9999</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>54</v>
@@ -3570,7 +3588,7 @@
         <v>54</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>124</v>
@@ -3618,7 +3636,7 @@
         <v>54</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>124</v>
@@ -3657,7 +3675,7 @@
         <v>9999</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>54</v>
@@ -3666,7 +3684,7 @@
         <v>54</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>125</v>
@@ -3705,10 +3723,10 @@
         <v>9999</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>52</v>
